--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD52909-3916-C348-9FB9-AC314B2C42CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DB39B-DC77-8A48-A82B-A6AC7302371C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,24 +103,6 @@
   </si>
   <si>
     <t>Insertion Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    void sort(int arr[]) 
-    { 
-        int n = arr.length; 
-        for (int i = 1; i &lt; n; ++i) { 
-            int key = arr[i]; 
-            int j = i - 1; 
-            /* Move elements of arr[0..i-1], that are 
-               greater than key, to one position ahead 
-               of their current position */
-            while (j &gt;= 0 &amp;&amp; arr[j] &gt; key) { 
-                arr[j + 1] = arr[j]; 
-                j = j - 1; 
-            } 
-            arr[j + 1] = key; 
-        } 
-    } </t>
   </si>
   <si>
     <t>Counting Sort</t>
@@ -2478,6 +2460,23 @@
   </si>
   <si>
     <t>use min heap and insert first element of all lists to find min in each iteration. Overall O(nlogk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void sort(int arr[]) { 
+        int n = arr.length; 
+        for (int i = 1; i &lt; n; ++i) { 
+            int key = arr[i]; 
+            int j = i - 1; 
+            // Move elements of arr[0..i-1], that are 
+            // greater than key, to one position ahead 
+            // of their current position 
+            while (j &gt;= 0 &amp;&amp; arr[j] &gt; key) { 
+                arr[j + 1] = arr[j]; 
+                j = j - 1; 
+            } 
+            arr[j + 1] = key; 
+        } 
+    } </t>
   </si>
 </sst>
 </file>
@@ -2905,8 +2904,8 @@
   </sheetPr>
   <dimension ref="A1:F1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -2962,7 +2961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="255">
+    <row r="4" spans="1:6" ht="240">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2972,1664 +2971,1664 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
       <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="195">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="240">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="285">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="225">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="150">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="150">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="270">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="370">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
       <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57">
       <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="29">
       <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="255">
       <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
       <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90">
       <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
       <c r="A20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
       <c r="A21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
       <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
       <c r="A41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
       <c r="A43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43">
       <c r="A44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="225">
       <c r="A60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="71">
       <c r="A61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="370">
       <c r="A62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="165">
       <c r="A63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="342">
       <c r="A64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="D64" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="240">
       <c r="A65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29">
       <c r="A66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="270">
       <c r="A67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="135">
       <c r="A68" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="197">
       <c r="A69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="29">
       <c r="A70" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="165">
       <c r="A71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="85">
       <c r="A72" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C72" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" ht="225">
       <c r="A73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" ht="29">
       <c r="A74" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="57">
       <c r="A75" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="C75" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" ht="127">
       <c r="A76" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="C76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="165">
       <c r="A77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>230</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409.6">
       <c r="A78" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="C78" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="43">
       <c r="A79" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="225">
       <c r="A80" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="C80" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="225">
       <c r="A81" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="D81" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="195">
       <c r="A82" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="370">
       <c r="A83" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="C83" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="300">
       <c r="A84" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>251</v>
-      </c>
       <c r="C84" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="328">
       <c r="A85" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="328">
       <c r="A86" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="C87" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="D87" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="57">
       <c r="A88" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" ht="165">
       <c r="A89" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="225">
       <c r="A90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="D90" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="342">
       <c r="A91" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="240">
       <c r="A92" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15">
       <c r="A93" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="C93" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" ht="105">
       <c r="A94" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>282</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="60">
       <c r="A95" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="180">
       <c r="A96" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="165">
       <c r="A97" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="285">
       <c r="A98" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="135">
       <c r="A99" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="384">
       <c r="A100" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="C100" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="180">
       <c r="A101" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="135">
       <c r="A102" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>307</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="57">
       <c r="A103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" ht="225">
       <c r="A104" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>314</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="150">
       <c r="A105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="C105" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="285">
       <c r="A106" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="225">
       <c r="A107" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="C107" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="D107" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="43">
       <c r="A108" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="D108" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" ht="150">
       <c r="A109" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>329</v>
-      </c>
       <c r="C109" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="240">
       <c r="A110" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>332</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="180">
       <c r="A111" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>334</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="239">
       <c r="A112" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="E112" s="8"/>
     </row>
@@ -11219,7 +11218,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -11236,7 +11235,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DB39B-DC77-8A48-A82B-A6AC7302371C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15767EAA-423E-9F4A-8553-A5AF521A9BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="410">
   <si>
     <t>Problem</t>
   </si>
@@ -2477,6 +2477,98 @@
             arr[j + 1] = key; 
         } 
     } </t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>public ListNode reverseKGroup(ListNode head, int k) {
+    ListNode begin;
+    if (head==null || head.next ==null || k==1)
+    	return head;
+    ListNode dummyhead = new ListNode(-1);
+    dummyhead.next = head;
+    begin = dummyhead;
+    int i=0;
+    while (head != null){
+    	i++;
+    	if (i%k == 0){
+    		begin = reverse(begin, head.next); 
+    		head = begin.next;
+    	} else {
+    		head = head.next;
+    	}
+    }
+    return dummyhead.next;
+}</t>
+  </si>
+  <si>
+    <t>Write a method for reverse list that accepts begin and end pointers. Return begin in reverse() as it will be the last node in the group. Also, begin will always point to the prev of the current group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public List&lt;int[]&gt; kSmallestPairs(int[] nums1, int[] nums2, int k) {
+        // min queue
+        PriorityQueue&lt;int[]&gt; q = new PriorityQueue&lt;&gt;((a, b) -&gt; (a[0] + a[1]) - (b[0] + b[1]));
+        List&lt;int[]&gt; res = new ArrayList();
+        int N1 = nums1.length, N2 = nums2.length;
+        if (N1 == 0 || N2 == 0) return res;
+        // offer initial pairs {num1, num2, index_of_num2}
+        for (int i = 0; i &lt; Math.min(N1, k); i++) q.offer(new int[]{nums1[i], nums2[0], 0});
+        for (int i = 0; i &lt; Math.min(N1 * N2, k); i++) {
+            int[] cur = q.poll();
+            res.add(new int[]{cur[0], cur[1]});
+            // next better pair is B: {num1, next(num2)}
+            if (cur[2] &lt; N2 - 1 ) { // boundary check
+                int idx = cur[2] + 1;
+                q.offer(new int[]{cur[0], nums2[idx], idx});
+            }
+        }
+        return res;
+    }</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-pairs-with-smallest-sums</t>
+  </si>
+  <si>
+    <t>Find K pairs with smallest sums</t>
+  </si>
+  <si>
+    <t>1. Take advantage of sorted lists 
+2. Create a Min Heap and add all pairs of Arr1 matched with [0] of Arr2
+3. Pop the min from heap and push to results. If results.size == k, return results;
+4. Add next element to the heap {num1, next(num2)}
+5. To keep track of next element in Arr2, also save the index from Arr2 in heap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>heap, binary_search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int kthSmallest(int[][] matrix, int k) {
+        int n = matrix.length;
+        PriorityQueue&lt;Tuple&gt; pq = new PriorityQueue&lt;Tuple&gt;();
+        for(int j = 0; j &lt;= n-1; j++) pq.offer(new Tuple(0, j, matrix[0][j]));
+        for(int i = 0; i &lt; k-1; i++) {
+            Tuple t = pq.poll();
+            if(t.x &lt; n-1){
+                pq.offer(new Tuple(t.x+1, t.y, matrix[t.x+1][t.y]));
+            } 
+        }
+        return pq.poll().val;
+    }</t>
+  </si>
+  <si>
+    <t>1. Take advantage of sorted lists 
+2. Create a Min Heap and add all elements of 1st row
+3. Repeat k times: Pop the min from heap and push the next row element into heap</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2683,6 +2775,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2902,10 +2995,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1032"/>
+  <dimension ref="A1:F1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -4001,657 +4094,687 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="85">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:5" ht="285">
+      <c r="A72" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="180">
+      <c r="A73" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="85">
+      <c r="A74" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="225">
-      <c r="A73" s="5" t="s">
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="285">
+      <c r="A75" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="225">
+      <c r="A76" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="29">
-      <c r="A74" s="5" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="29">
+      <c r="A77" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B77" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" ht="57">
-      <c r="A75" s="5" t="s">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="57">
+      <c r="A78" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D78" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" ht="127">
-      <c r="A76" s="5" t="s">
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" ht="127">
+      <c r="A79" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" ht="165">
-      <c r="A77" s="5" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="165">
+      <c r="A80" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="409.6">
-      <c r="A78" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="43">
-      <c r="A79" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" ht="225">
-      <c r="A80" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="409.6">
+      <c r="A81" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43">
+      <c r="A82" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="225">
+      <c r="A83" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="225">
-      <c r="A81" s="5" t="s">
+    <row r="84" spans="1:5" ht="225">
+      <c r="A84" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="195">
-      <c r="A82" s="5" t="s">
+    <row r="85" spans="1:5" ht="195">
+      <c r="A85" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="370">
-      <c r="A83" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="300">
-      <c r="A84" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="328">
-      <c r="A85" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="328">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="370">
       <c r="A86" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="300">
       <c r="A87" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="57">
+        <v>244</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="328">
       <c r="A88" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" ht="165">
+        <v>244</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="328">
       <c r="A89" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="225">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="342">
+        <v>49</v>
+      </c>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" ht="57">
       <c r="A91" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="240">
+        <v>260</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="165">
       <c r="A92" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="225">
       <c r="A93" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" ht="105">
+        <v>386</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="342">
       <c r="A94" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="60">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="240">
       <c r="A95" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="180">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="165">
+        <v>278</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" ht="105">
       <c r="A97" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="285">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="60">
       <c r="A98" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="135">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="180">
       <c r="A99" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="384">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="165">
       <c r="A100" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>300</v>
+        <v>290</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="180">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="285">
       <c r="A101" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>388</v>
-      </c>
+      <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="135">
       <c r="A102" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="57">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="384">
       <c r="A103" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" ht="225">
+        <v>301</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="180">
       <c r="A104" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>313</v>
+        <v>303</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="E104" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="150">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="135">
       <c r="A105" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="285">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="57">
       <c r="A106" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>240</v>
+        <v>308</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="8" t="s">
-        <v>321</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="225">
       <c r="A107" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>323</v>
+        <v>312</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>390</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="43">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="150">
       <c r="A108" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>209</v>
+        <v>315</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" ht="150">
+        <v>317</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="285">
       <c r="A109" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="240">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="225">
       <c r="A110" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="180">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="43">
       <c r="A111" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>326</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:5" ht="150">
+      <c r="A112" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="240">
+      <c r="A113" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="180">
+      <c r="A114" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="239">
-      <c r="A112" s="5" t="s">
+    <row r="115" spans="1:5" ht="239">
+      <c r="A115" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5" ht="14">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="1:5" ht="14">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="21"/>
-    </row>
-    <row r="115" spans="1:5" ht="14">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="21"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="14">
       <c r="A116" s="7"/>
@@ -11071,6 +11194,27 @@
       <c r="C1032" s="7"/>
       <c r="D1032" s="7"/>
       <c r="E1032" s="21"/>
+    </row>
+    <row r="1033" spans="1:5" ht="14">
+      <c r="A1033" s="7"/>
+      <c r="B1033" s="7"/>
+      <c r="C1033" s="7"/>
+      <c r="D1033" s="7"/>
+      <c r="E1033" s="21"/>
+    </row>
+    <row r="1034" spans="1:5" ht="14">
+      <c r="A1034" s="7"/>
+      <c r="B1034" s="7"/>
+      <c r="C1034" s="7"/>
+      <c r="D1034" s="7"/>
+      <c r="E1034" s="21"/>
+    </row>
+    <row r="1035" spans="1:5" ht="14">
+      <c r="A1035" s="7"/>
+      <c r="B1035" s="7"/>
+      <c r="C1035" s="7"/>
+      <c r="D1035" s="7"/>
+      <c r="E1035" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11130,51 +11274,54 @@
     <hyperlink ref="B69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="B70" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="B71" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B73" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B74" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B77" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B78" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B79" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B80" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B81" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B82" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B83" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B84" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B85" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B86" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B87" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B89" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B90" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B91" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B92" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B93" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B95" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B96" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B97" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B98" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B99" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B100" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B101" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B102" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B103" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B104" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B105" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B106" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B107" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B108" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B109" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B110" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B111" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B112" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B77" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B78" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B80" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B81" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B86" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B87" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B88" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B89" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B90" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B91" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B92" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B93" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B94" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B95" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B96" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B97" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B98" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B99" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B100" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B101" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B102" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B103" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B108" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B109" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B110" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B111" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B112" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B113" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B114" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B115" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
     <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
     <hyperlink ref="D44" r:id="rId100" xr:uid="{7F191D76-E8E5-C644-803F-C303BDB3A45A}"/>
-    <hyperlink ref="D75" r:id="rId101" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="D78" r:id="rId101" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B75" r:id="rId102" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B72" r:id="rId103" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B73" r:id="rId104" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15767EAA-423E-9F4A-8553-A5AF521A9BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B218AD92-9704-0E41-AA84-81072E57725B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="409">
   <si>
     <t>Problem</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/3sum/</t>
-  </si>
-  <si>
-    <t>arrays, two_pointer</t>
   </si>
   <si>
     <t>Find first missing positive number</t>
@@ -2997,8 +2994,8 @@
   </sheetPr>
   <dimension ref="A1:F1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3064,7 +3061,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3182,7 +3179,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -3199,10 +3196,10 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57">
@@ -3243,1148 +3240,1148 @@
         <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
       <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90">
       <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
       <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
       <c r="A21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
       <c r="A24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
       <c r="A41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
       <c r="A43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43">
       <c r="A44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="225">
       <c r="A60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="71">
       <c r="A61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="370">
       <c r="A62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="165">
       <c r="A63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="342">
       <c r="A64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="D64" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="240">
       <c r="A65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29">
       <c r="A66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="270">
       <c r="A67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="135">
       <c r="A68" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="197">
       <c r="A69" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="29">
       <c r="A70" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="165">
       <c r="A71" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="285">
       <c r="A72" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="E72" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="180">
       <c r="A73" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="85">
       <c r="A74" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="285">
       <c r="A75" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="C75" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="225">
       <c r="A76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="29">
       <c r="A77" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="57">
       <c r="A78" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C78" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" ht="127">
       <c r="A79" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="165">
       <c r="A80" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="409.6">
       <c r="A81" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43">
       <c r="A82" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="225">
       <c r="A83" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="225">
       <c r="A84" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="D84" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="195">
       <c r="A85" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="370">
       <c r="A86" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="300">
       <c r="A87" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="328">
       <c r="A88" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="328">
       <c r="A89" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15">
       <c r="A90" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>49</v>
@@ -4393,386 +4390,386 @@
     </row>
     <row r="91" spans="1:5" ht="57">
       <c r="A91" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="C91" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="165">
       <c r="A92" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="225">
       <c r="A93" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="C93" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="D93" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="342">
       <c r="A94" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="240">
       <c r="A95" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="60">
       <c r="A98" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="180">
       <c r="A99" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="C99" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="165">
       <c r="A100" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>291</v>
-      </c>
       <c r="C100" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="285">
       <c r="A101" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="135">
       <c r="A102" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="384">
       <c r="A103" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="C103" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="180">
       <c r="A104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="135">
       <c r="A105" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="57">
       <c r="A106" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="225">
       <c r="A107" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>313</v>
-      </c>
       <c r="C107" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="150">
       <c r="A108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="C108" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="285">
       <c r="A109" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="225">
       <c r="A110" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="D110" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="43">
       <c r="A111" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="D111" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" ht="150">
       <c r="A112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="240">
       <c r="A113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="180">
       <c r="A114" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>333</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="239">
       <c r="A115" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="E115" s="8"/>
     </row>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B218AD92-9704-0E41-AA84-81072E57725B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CBEE1-0B2A-CB40-AE3A-8ED545305321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="410">
   <si>
     <t>Problem</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
-  </si>
-  <si>
-    <t>Implement two binary searches, one to find the smallest number (or the inflection point) and other the simple binary search</t>
   </si>
   <si>
     <t>Two Sum</t>
@@ -2566,6 +2563,41 @@
     <t>1. Take advantage of sorted lists 
 2. Create a Min Heap and add all elements of 1st row
 3. Repeat k times: Pop the min from heap and push the next row element into heap</t>
+  </si>
+  <si>
+    <t>1. If the entire left part is monotonically increasing, which means the pivot point is on the right part
+	If left &lt;= target &lt; mid ------&gt; drop the right half
+	Use &lt;= to make sure that target is in left part
+	Else ------&gt; drop the left half
+2. If the entire right part is monotonically increasing, which means the pivot point is on the left part
+	If mid &lt; target &lt;= right ------&gt; drop the left half
+	Use &lt;= to make sure target is in right part
+	Else ------&gt; drop the right half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while (left &lt;= right) {
+        int mid = left + (right - left) / 2;
+        if (target == nums[mid]) {
+            return mid;
+        }
+        if (nums[left] &lt;= nums[mid]) {
+            if (nums[left] &lt;= target &amp;&amp; target &lt; nums[mid]) {
+                right = mid - 1;
+            }
+            else {
+                left = mid + 1;
+            }
+        }
+        else {
+            if (nums[mid] &lt; target &amp;&amp; target &lt;= nums[right]) {
+                left = mid + 1;
+            }
+            else {
+                right = mid - 1;
+            }
+        }
+    }
+    return -1;</t>
   </si>
 </sst>
 </file>
@@ -2994,8 +3026,8 @@
   </sheetPr>
   <dimension ref="A1:F1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3061,7 +3093,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3179,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -3196,13 +3228,13 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="342">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -3213,1563 +3245,1565 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>408</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="29">
       <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="255">
       <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
       <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90">
       <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
       <c r="A20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
       <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
       <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
       <c r="A41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
       <c r="A43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43">
       <c r="A44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="225">
       <c r="A60" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="71">
       <c r="A61" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="370">
       <c r="A62" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="165">
       <c r="A63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="342">
       <c r="A64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="D64" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="240">
       <c r="A65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29">
       <c r="A66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="270">
       <c r="A67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="135">
       <c r="A68" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="197">
       <c r="A69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="29">
       <c r="A70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="165">
       <c r="A71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="285">
       <c r="A72" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="E72" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="180">
       <c r="A73" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="85">
       <c r="A74" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="285">
       <c r="A75" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="C75" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="225">
       <c r="A76" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="29">
       <c r="A77" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="57">
       <c r="A78" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C78" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" ht="127">
       <c r="A79" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="165">
       <c r="A80" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="409.6">
       <c r="A81" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="43">
       <c r="A82" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="225">
       <c r="A83" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="225">
       <c r="A84" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="D84" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="195">
       <c r="A85" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="370">
       <c r="A86" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="300">
       <c r="A87" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="328">
       <c r="A88" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="328">
       <c r="A89" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15">
       <c r="A90" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="D90" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="57">
       <c r="A91" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="C91" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="165">
       <c r="A92" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="225">
       <c r="A93" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="C93" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="D93" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="342">
       <c r="A94" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="240">
       <c r="A95" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>280</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="60">
       <c r="A98" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>283</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="180">
       <c r="A99" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="C99" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="165">
       <c r="A100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="C100" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="285">
       <c r="A101" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="135">
       <c r="A102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>296</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="384">
       <c r="A103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="C103" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="180">
       <c r="A104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="135">
       <c r="A105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="57">
       <c r="A106" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="225">
       <c r="A107" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="C107" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="150">
       <c r="A108" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="C108" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="285">
       <c r="A109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="225">
       <c r="A110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="D110" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="43">
       <c r="A111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="D111" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" ht="150">
       <c r="A112" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="240">
       <c r="A113" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="180">
       <c r="A114" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>332</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="239">
       <c r="A115" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="E115" s="8"/>
     </row>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CBEE1-0B2A-CB40-AE3A-8ED545305321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AB67E-50E4-8A4D-8BDF-88F9EAC761A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2546,25 +2546,6 @@
     <t>heap, binary_search</t>
   </si>
   <si>
-    <t xml:space="preserve">    public int kthSmallest(int[][] matrix, int k) {
-        int n = matrix.length;
-        PriorityQueue&lt;Tuple&gt; pq = new PriorityQueue&lt;Tuple&gt;();
-        for(int j = 0; j &lt;= n-1; j++) pq.offer(new Tuple(0, j, matrix[0][j]));
-        for(int i = 0; i &lt; k-1; i++) {
-            Tuple t = pq.poll();
-            if(t.x &lt; n-1){
-                pq.offer(new Tuple(t.x+1, t.y, matrix[t.x+1][t.y]));
-            } 
-        }
-        return pq.poll().val;
-    }</t>
-  </si>
-  <si>
-    <t>1. Take advantage of sorted lists 
-2. Create a Min Heap and add all elements of 1st row
-3. Repeat k times: Pop the min from heap and push the next row element into heap</t>
-  </si>
-  <si>
     <t>1. If the entire left part is monotonically increasing, which means the pivot point is on the right part
 	If left &lt;= target &lt; mid ------&gt; drop the right half
 	Use &lt;= to make sure that target is in left part
@@ -2598,6 +2579,49 @@
         }
     }
     return -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int kthSmallest(int[][] matrix, int k) {
+        int n = matrix.length;
+        PriorityQueue&lt;Tuple&gt; pq = new PriorityQueue&lt;Tuple&gt;();
+        for(int j = 0; j &lt;= n-1; j++) pq.offer(new Tuple(j, 0, matrix[j][0]));
+        for(int i = 0; i &lt; k-1; i++) {
+            Tuple t = pq.poll();
+            if(t.y &lt; n-1){
+                pq.offer(new Tuple(t.x, t.y + 1, matrix[t.x][t.y + 1]));
+            } 
+        }
+        return pq.poll().val;
+    }
+    public int kthSmallest(int[][] matrix, int k) {
+        int rows = matrix.length, cols = matrix[0].length;
+        int lo = matrix[0][0], hi = matrix[rows - 1][cols - 1] ;
+        while(lo &lt;= hi) {
+            int mid = lo + (hi - lo) / 2;
+            int count = 0,  maxNum = lo, c = cols - 1;            
+            for (int r = 0; r &lt; rows; r++) {
+            	// this row's c has to be smaller than the c found in last row due to the sorted property of the matrix 
+                while (c &gt;= 0 &amp;&amp; matrix[r][c] &gt; mid) c--;   
+                if (c &gt;= 0) {
+                    count += (c + 1); 
+                    maxNum = Math.max(maxNum, matrix[r][c]); // mid might not be present
+                }
+            }
+            if (count == k) return maxNum;
+            else if (count &lt; k) lo = mid + 1;
+            else hi = mid - 1;
+        }
+        // Here lo=hi+1, for hi, we found &lt;k elems, for lo, we found &gt;=k elem, lo must have duplicates in matrix, return lo
+        return lo;
+    }</t>
+  </si>
+  <si>
+    <t>Heap method:
+1. Take advantage of sorted lists 
+2. Create a Min Heap and add all elements of 1st column
+3. Repeat k times: Pop the min from heap and push the next column element into heap
+Binary Search Intuition:
+For each row, we are going to find nums &lt; mid in that row</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +3050,8 @@
   </sheetPr>
   <dimension ref="A1:F1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3036,7 +3060,7 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="113.5" customWidth="1"/>
+    <col min="5" max="5" width="126.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14">
@@ -3245,10 +3269,10 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
@@ -4125,7 +4149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="285">
+    <row r="72" spans="1:5" ht="280" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>401</v>
       </c>
@@ -4142,7 +4166,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="180">
+    <row r="73" spans="1:5" ht="409" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>404</v>
       </c>
@@ -4153,10 +4177,10 @@
         <v>405</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="85">
@@ -11355,6 +11379,7 @@
     <hyperlink ref="B73" r:id="rId104" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AB67E-50E4-8A4D-8BDF-88F9EAC761A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E15EA-1AE8-5F4D-9D5A-B3D7FB3F55E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="419">
   <si>
     <t>Problem</t>
   </si>
@@ -2622,6 +2622,113 @@
 3. Repeat k times: Pop the min from heap and push the next column element into heap
 Binary Search Intuition:
 For each row, we are going to find nums &lt; mid in that row</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler</t>
+  </si>
+  <si>
+    <t>heap, greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greey and MaxHeap O(nlogn):
+Idea is to add them to a priority Q and sort based on the highest frequency.
+And pick the tasks in each round of 'n' with highest frequency. As you pick the task, decrease the frequency, and put them back after the round but only after the cycle to avoid picking same task again.
+Greedy O(n) time O(1) space:
+Example: 3A, 2B, 1C, n = 2. 
+Since A is max frequency, we get:
+A ? ? A ? ? A
+For 3A 3B 2C 1D, n = 3, we get:
+A B ? ? A B ? ? A B
+Generalising:
+partCount = count(A) - 1
+emptySlots(?s) = partCount * (n - (count of tasks with most frequency - 1))
+availableTasks(that can be assigned in emptySlots) = tasks.length - count(A) * count of tasks with most frenquency
+idles = max(0, emptySlots - availableTasks)
+result = tasks.length + idles
+-ve emptySlots: 3A, 3B, 3C, 3D, 2E, n = 2.
+You can always first arrange A, B, C, D as:
+A B C D | A B C D | A B C D
+in this case you have already met the "minimum" length requirement for each part (n = 2), you can always put more tasks in each part if you like:
+e.g.
+A B C D E | A B C D E | A B C D
+emptySlots &lt; 0 means you have already got enough tasks to fill in each part to make arranged tasks valid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	public int leastInterval(char[] tasks, int n) {
+	    // create frequency map and addAll frequencies to a MaxHeap
+	    q.addAll(map.getValues());
+	    int count = 0;
+	    while (!q.isEmpty()) {
+	        int k = n + 1;
+	        List&lt;Integer&gt; tempList = new ArrayList&lt;&gt;();
+	        while (k &gt; 0 &amp;&amp; !q.isEmpty()) {
+	            int top = q.poll();
+	            top--; 
+	            tempList.add(top); 
+	            k--;
+	            count++; //successfully executed task
+	        }
+	        for (int i : tempList) {
+	            if (i &gt; 0) q.add(i); // add valid tasks 
+	        }
+	        if (q.isEmpty()) break;
+	        count = count + k; // if k &gt; 0, then it means we need to be idle
+	    }
+	    return count;
+	}
+	public int leastInterval(char[] tasks, int n) {
+	    int[] counter = new int[26];
+	    int max = 0;
+	    int maxCount = 0;
+	    for(char task : tasks) {
+	        counter[task - 'A']++;
+	        if(max == counter[task - 'A']) {
+	            maxCount++;
+	        }
+	        else if(max &lt; counter[task - 'A']) {
+	            max = counter[task - 'A'];
+	            maxCount = 1;
+	        }
+	    }
+	    int partCount = max - 1;
+	    int partLength = n - (maxCount - 1);
+	    int emptySlots = partCount * partLength;
+	    int availableTasks = tasks.length - max * maxCount;
+	    int idles = Math.max(0, emptySlots - availableTasks);
+	    return tasks.length + idles;
+	}</t>
+  </si>
+  <si>
+    <t>Reorder Routes to Make All Paths Lead to the City Zero</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
+  </si>
+  <si>
+    <t>Each city can be head of a Linked List just once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int minReorder(int n, int[][] connections) {
+        // tracks nodes pointing to 0 (i.e.connection[0] should be present)
+        Set&lt;Integer&gt; set = new HashSet&lt;&gt;(); 
+        set.add(0);
+        int cnt = 0;
+        for (int[] c : connections) {
+            int st = c[0];
+            int ed = c[1];
+            if (set.contains(st)) {
+                cnt++;
+                set.add(ed);
+            } else {
+                set.add(st);
+            }
+        }
+        return cnt;
+    }</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2829,6 +2936,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3048,10 +3158,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1035"/>
+  <dimension ref="A1:F1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -4091,759 +4201,779 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="135">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:5" ht="409.6">
+      <c r="A68" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="135">
+      <c r="A69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="197">
-      <c r="A69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>201</v>
-      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="197">
+      <c r="A70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5" ht="29">
-      <c r="A70" s="12" t="s">
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" ht="29">
+      <c r="A71" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B71" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" ht="165">
-      <c r="A71" s="5" t="s">
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="165">
+      <c r="A72" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="8" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="280" customHeight="1">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:5" ht="280" customHeight="1">
+      <c r="A73" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E73" s="21" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="409" customHeight="1">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:5" ht="409" customHeight="1">
+      <c r="A74" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B74" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="85">
-      <c r="A74" s="12" t="s">
+    <row r="75" spans="1:5" ht="85">
+      <c r="A75" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" ht="285">
-      <c r="A75" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>396</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>198</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="285">
+      <c r="A76" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="225">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:5" ht="225">
+      <c r="A77" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" ht="29">
-      <c r="A77" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="29">
+      <c r="A78" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" ht="57">
-      <c r="A78" s="5" t="s">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D79" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" ht="127">
-      <c r="A79" s="5" t="s">
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" ht="127">
+      <c r="A80" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" ht="165">
-      <c r="A80" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="409.6">
+        <v>225</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="165">
       <c r="A81" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="E81" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="409.6">
+      <c r="A82" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="43">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:5" ht="43">
+      <c r="A83" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" ht="225">
-      <c r="A83" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>379</v>
-      </c>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="225">
       <c r="A84" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="225">
+      <c r="A85" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E85" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="195">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:5" ht="195">
+      <c r="A86" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="370">
-      <c r="A86" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="300">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="370">
       <c r="A87" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="328">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="300">
       <c r="A88" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="328">
       <c r="A89" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="328">
+      <c r="A90" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" ht="57">
-      <c r="A91" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>258</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="1:5" ht="165">
+    <row r="92" spans="1:5" ht="57">
       <c r="A92" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="8" t="s">
+      <c r="D92" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="165">
+      <c r="A93" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="225">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:5" ht="225">
+      <c r="A94" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="342">
-      <c r="A94" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="E94" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="240">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="342">
       <c r="A95" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="240">
+      <c r="A96" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" ht="105">
-      <c r="A97" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="60">
+      <c r="D97" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" ht="105">
       <c r="A98" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="180">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60">
       <c r="A99" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="165">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="180">
       <c r="A100" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>286</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="285">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="165">
       <c r="A101" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="135">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="285">
       <c r="A102" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="384">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="135">
       <c r="A103" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="384">
+      <c r="A104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="180">
-      <c r="A104" s="5" t="s">
+    <row r="105" spans="1:5" ht="180">
+      <c r="A105" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B105" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="135">
-      <c r="A105" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="E105" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="135">
+      <c r="A106" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="57">
-      <c r="A106" s="5" t="s">
+    <row r="107" spans="1:5" ht="57">
+      <c r="A107" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" ht="225">
-      <c r="A107" s="5" t="s">
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" ht="225">
+      <c r="A108" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="150">
-      <c r="A108" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="285">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="150">
       <c r="A109" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>238</v>
+        <v>313</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="255">
+      <c r="A110" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="285">
+      <c r="A111" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="225">
-      <c r="A110" s="5" t="s">
+    <row r="112" spans="1:5" ht="225">
+      <c r="A112" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B112" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="43">
-      <c r="A111" s="5" t="s">
+    <row r="113" spans="1:5" ht="43">
+      <c r="A113" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="8"/>
-    </row>
-    <row r="112" spans="1:5" ht="150">
-      <c r="A112" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="240">
-      <c r="A113" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>324</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="180">
+        <v>393</v>
+      </c>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="1:5" ht="150">
       <c r="A114" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="240">
+      <c r="A115" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="180">
+      <c r="A116" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="239">
-      <c r="A115" s="5" t="s">
+    <row r="117" spans="1:5" ht="239">
+      <c r="A117" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5" ht="14">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="21"/>
-    </row>
-    <row r="117" spans="1:5" ht="14">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="21"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" ht="14">
       <c r="A118" s="7"/>
@@ -11270,6 +11400,20 @@
       <c r="C1035" s="7"/>
       <c r="D1035" s="7"/>
       <c r="E1035" s="21"/>
+    </row>
+    <row r="1036" spans="1:5" ht="14">
+      <c r="A1036" s="7"/>
+      <c r="B1036" s="7"/>
+      <c r="C1036" s="7"/>
+      <c r="D1036" s="7"/>
+      <c r="E1036" s="21"/>
+    </row>
+    <row r="1037" spans="1:5" ht="14">
+      <c r="A1037" s="7"/>
+      <c r="B1037" s="7"/>
+      <c r="C1037" s="7"/>
+      <c r="D1037" s="7"/>
+      <c r="E1037" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11326,57 +11470,59 @@
     <hyperlink ref="B65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="B66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="B67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B70" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B71" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B77" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B78" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B80" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B81" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B86" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B87" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B88" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B89" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B90" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B91" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B92" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B93" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B94" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B95" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B96" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B97" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B98" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B99" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B100" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B101" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B102" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B103" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B108" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B109" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B110" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B111" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B112" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B113" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B114" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B115" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B70" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B83" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B85" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B90" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B91" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B92" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B93" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B94" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B95" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B97" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B98" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B100" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B101" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B102" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B103" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B104" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B107" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B108" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B109" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B111" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B112" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B113" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B114" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B117" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
     <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
     <hyperlink ref="D44" r:id="rId100" xr:uid="{7F191D76-E8E5-C644-803F-C303BDB3A45A}"/>
-    <hyperlink ref="D78" r:id="rId101" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B75" r:id="rId102" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B72" r:id="rId103" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B73" r:id="rId104" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="D79" r:id="rId101" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B76" r:id="rId102" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B73" r:id="rId103" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B74" r:id="rId104" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B68" r:id="rId105" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B110" r:id="rId106" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E15EA-1AE8-5F4D-9D5A-B3D7FB3F55E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECA327-F82D-F240-9F30-124062057A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>Find Duplicate</t>
-  </si>
-  <si>
-    <t>mark num[num[i]] as -1, if already negative again it is duplicate</t>
   </si>
   <si>
     <t>Move Zeroes</t>
@@ -2729,6 +2726,9 @@
         }
         return cnt;
     }</t>
+  </si>
+  <si>
+    <t>Mark num[num[i]] as -1, if already negative again it is duplicate</t>
   </si>
 </sst>
 </file>
@@ -3160,8 +3160,8 @@
   </sheetPr>
   <dimension ref="A1:F1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3345,7 +3345,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -3362,10 +3362,10 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
@@ -3379,10 +3379,10 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
@@ -3408,13 +3408,13 @@
         <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
@@ -3445,10 +3445,10 @@
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
@@ -3462,7 +3462,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>60</v>
@@ -3535,1038 +3535,1038 @@
         <v>75</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
       <c r="A41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
       <c r="A43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43">
       <c r="A44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="225">
       <c r="A60" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="71">
       <c r="A61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="370">
       <c r="A62" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="165">
       <c r="A63" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="342">
       <c r="A64" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="D64" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="240">
       <c r="A65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29">
       <c r="A66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" ht="270">
       <c r="A67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="409.6">
       <c r="A68" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="C68" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="21" t="s">
         <v>413</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="135">
       <c r="A69" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="197">
       <c r="A70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" ht="29">
       <c r="A71" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" ht="165">
       <c r="A72" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="280" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="E73" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="409" customHeight="1">
       <c r="A74" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="D74" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="85">
       <c r="A75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="C75" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" ht="285">
       <c r="A76" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="C76" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="225">
       <c r="A77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="29">
       <c r="A78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="C78" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" ht="57">
       <c r="A79" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="C79" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" ht="127">
       <c r="A80" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" ht="165">
       <c r="A81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="409.6">
       <c r="A82" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="43">
       <c r="A83" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="225">
       <c r="A84" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="225">
       <c r="A85" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D85" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="195">
       <c r="A86" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="370">
       <c r="A87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="300">
       <c r="A88" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="328">
       <c r="A89" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>251</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="328">
       <c r="A90" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15">
       <c r="A91" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="C91" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>48</v>
@@ -4575,403 +4575,403 @@
     </row>
     <row r="92" spans="1:5" ht="57">
       <c r="A92" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="165">
       <c r="A93" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="C93" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="225">
       <c r="A94" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="C94" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="D94" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="342">
       <c r="A95" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="240">
       <c r="A96" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15">
       <c r="A97" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="C97" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" ht="105">
       <c r="A98" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>279</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="60">
       <c r="A99" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>282</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="180">
       <c r="A100" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="C100" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="165">
       <c r="A101" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="285">
       <c r="A102" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="135">
       <c r="A103" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="384">
       <c r="A104" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="C104" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="180">
       <c r="A105" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>302</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="135">
       <c r="A106" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="C106" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="57">
       <c r="A107" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" ht="225">
       <c r="A108" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>311</v>
-      </c>
       <c r="C108" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="150">
       <c r="A109" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="C109" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="255">
       <c r="A110" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>416</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="285">
       <c r="A111" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="225">
       <c r="A112" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="C112" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="D112" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="43">
       <c r="A113" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="D113" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" ht="150">
       <c r="A114" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>326</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="240">
       <c r="A115" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>329</v>
-      </c>
       <c r="C115" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="180">
       <c r="A116" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="C116" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="239">
       <c r="A117" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="E117" s="8"/>
     </row>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECA327-F82D-F240-9F30-124062057A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A141606-F02C-AB44-8E17-2F77168418CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="428">
   <si>
     <t>Problem</t>
   </si>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/partition-equal-subset-sum/discuss/90592/01-knapsack-detailed-explanation</t>
   </si>
   <si>
     <t>Combination Sum 4</t>
@@ -2706,29 +2703,168 @@
     <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
   </si>
   <si>
-    <t>Each city can be head of a Linked List just once</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public int minReorder(int n, int[][] connections) {
-        // tracks nodes pointing to 0 (i.e.connection[0] should be present)
-        Set&lt;Integer&gt; set = new HashSet&lt;&gt;(); 
-        set.add(0);
-        int cnt = 0;
-        for (int[] c : connections) {
-            int st = c[0];
-            int ed = c[1];
-            if (set.contains(st)) {
-                cnt++;
-                set.add(ed);
-            } else {
-                set.add(st);
+    <t>Mark num[num[i]] as -1, if already negative again it is duplicate</t>
+  </si>
+  <si>
+    <t>public int minReorder(int n, int[][] connections) {
+    List&lt;int[]&gt;[] graph = new List[n];  //int[] = {dest, cost}
+    for(int[] con : connections) {
+        if (graph[con[0]] == null) graph[con[0]] = new ArrayList&lt;int[]&gt;();
+        if (graph[con[1]] == null) graph[con[1]] = new ArrayList&lt;int[]&gt;();
+        graph[con[0]].add(new int[]{con[1],1});//original direction, costs 1
+        graph[con[1]].add(new int[]{con[0],0});//oposite directions, costs 0
+    }
+    return dfs(0,graph,new boolean[n]);
+}
+private int dfs(int curr, List&lt;int[]&gt;[] graph, boolean[] visited) {
+    int cost = 0;
+    visited[curr]=true;
+    for(int[] neigh : graph[curr]) {
+        if (!visited[neigh[0]]) {
+            cost += neigh[1];
+            cost += dfs(neigh[0],graph,visited);
+        }
+    }
+    return cost;
+}
+public int minReorder(int n, int[][] connections) {
+    // tracks nodes pointing to 0 (i.e.connection[0] should be present)
+    Set&lt;Integer&gt; set = new HashSet&lt;&gt;(); 
+    set.add(0);
+    int cnt = 0;
+    for (int[] c : connections) {
+        int st = c[0];
+        int ed = c[1];
+        if (set.contains(st)) {
+            cnt++;
+            set.add(ed);
+        } else {
+            set.add(st);
+        }
+    }
+    return cnt;
+}</t>
+  </si>
+  <si>
+    <t>DFS (intuitive):
+Transform each edge in a bi-directional edge, so that when you go on the right (original) direction, it costs you 1, and when you go on the not original direction, it costs you 0.
+Start a dfs from city 0 and go to its neighbors, and always add the cost of going to that direction.
+Because of what you did on (1), if the direction is correct, it means that that edge needs to be reversed, hence it will cost one.
+Another method:
+Each city can be head of a Linked List just once</t>
+  </si>
+  <si>
+    <t>sliding_window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int numSubarrayProductLessThanK(int[] nums, int k) {
+        int product = 1;
+        int count = 0;
+        int start = 0, end = 0;
+        while (end &lt; nums.length) {
+            product = product * nums[end];
+            while (product &gt;= k &amp;&amp; start &lt;= end) {
+                product = product / nums[start];
+                start++;
             }
+            if (start &lt;= end) {
+                count += end - start + 1;
+            }
+            end++;
         }
-        return cnt;
+        return count;
     }</t>
   </si>
   <si>
-    <t>Mark num[num[i]] as -1, if already negative again it is duplicate</t>
+    <t>https://leetcode.com/problems/subarray-product-less-than-k/</t>
+  </si>
+  <si>
+    <t>Subarray product less than k</t>
+  </si>
+  <si>
+    <t>Actually, this is a 0/1 knapsack problem, for each number, we can pick it or not. Let us assume dp[i][j] means whether the specific sum j can be gotten from the first i numbers. If we can pick such a series of numbers from 0-i whose sum is j, dp[i][j] is true, otherwise it is false.
+Base case: dp[0][0] is true; (zero number consists of sum 0 is true)
+Transition function: For each number, if we don't pick it, dp[i][j] = dp[i-1][j], which means if the first i-1 elements has made it to j, dp[i][j] would also make it to j (we can just ignore nums[i]). If we pick nums[i]. dp[i][j] = dp[i-1][j-nums[i]], which represents that j is composed of the current value nums[i] and the remaining composed of other previous numbers. Thus, the transition function is dp[i][j] = dp[i-1][j] || dp[i-1][j-nums[i]]</t>
+  </si>
+  <si>
+    <t>Recursive:
+private boolean helper(int[] nums, int pos, int target) {
+    if (target == 0) {
+        return true;
+    }
+    if (pos == nums.length || target &lt; 0) {
+        return false;
+    }
+    if (helper(nums, pos + 1, target)
+        || helper(nums, pos + 1, target - nums[pos])) {
+        return true;
+    }
+    return false;
+}
+DP:
+dp[0][0] = true;
+for (int i = 1; i &lt; n+1; i++) {
+    dp[i][0] = true;
+}
+for (int j = 1; j &lt; sum+1; j++) {
+    dp[0][j] = false;
+}
+for (int i = 1; i &lt; n+1; i++) {
+    for (int j = 1; j &lt; sum+1; j++) {
+        dp[i][j] = dp[i-1][j];
+        if (j &gt;= nums[i-1]) {
+            dp[i][j] = (dp[i][j] || dp[i-1][j-nums[i-1]]);
+        }
+    }
+}
+Optimized DP:
+dp[0] = true;
+for (int num : nums) {
+    for (int i = sum; i &gt; 0; i--) {
+        if (i &gt;= num) {
+            dp[i] = dp[i] || dp[i-num];
+        }
+    }
+}
+return dp[sum];</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-height-trees/</t>
+  </si>
+  <si>
+    <t>public List&lt;Integer&gt; findMinHeightTrees(int n, int[][] edges) {
+    if (n == 1) return Collections.singletonList(0);
+    List&lt;Set&lt;Integer&gt;&gt; adj = new ArrayList&lt;&gt;(n);
+    for (int i = 0; i &lt; n; ++i) adj.add(new HashSet&lt;&gt;());
+    for (int[] edge : edges) {
+        adj.get(edge[0]).add(edge[1]);
+        adj.get(edge[1]).add(edge[0]);
+    }
+    List&lt;Integer&gt; leaves = new ArrayList&lt;&gt;();
+    for (int i = 0; i &lt; n; ++i)
+        if (adj.get(i).size() == 1) leaves.add(i);
+    while (n &gt; 2) {
+        n -= leaves.size();
+        List&lt;Integer&gt; newLeaves = new ArrayList&lt;&gt;();
+        for (int i : leaves) {
+            int j = adj.get(i).iterator().next();
+            adj.get(j).remove(i);
+            if (adj.get(j).size() == 1) newLeaves.add(j);
+        }
+        leaves = newLeaves;
+    }
+    return leaves;
+}</t>
+  </si>
+  <si>
+    <t>1. Make Adjacency list representation
+2. Save all leaves.
+3. For each leaf, get it's neighbor. Remove the leaf and set the neighbor as new leaf
+4. Repeat until 1 or 2 leaves remain, return it
+Why upto 2? The root can be middle n/2 if n is odd or middle two elements if n is even. Only then height can be minimum. Think of it as median of array.</t>
   </si>
 </sst>
 </file>
@@ -3158,10 +3294,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1037"/>
+  <dimension ref="A1:F1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3227,7 +3363,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3345,7 +3481,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -3362,10 +3498,10 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
@@ -3379,10 +3515,10 @@
         <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
@@ -3411,10 +3547,10 @@
         <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
@@ -3445,10 +3581,10 @@
         <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
@@ -3462,7 +3598,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>60</v>
@@ -3535,13 +3671,13 @@
         <v>75</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -3556,10 +3692,10 @@
         <v>43</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
@@ -3582,16 +3718,16 @@
         <v>81</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
@@ -3651,7 +3787,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
@@ -3695,10 +3831,10 @@
         <v>102</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
@@ -3713,7 +3849,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
@@ -3743,7 +3879,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -3757,10 +3893,10 @@
         <v>111</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
@@ -3777,7 +3913,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
@@ -3791,10 +3927,10 @@
         <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
@@ -3808,10 +3944,10 @@
         <v>116</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
@@ -3829,7 +3965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43">
+    <row r="44" spans="1:5" ht="408" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>126</v>
       </c>
@@ -3839,1155 +3975,1175 @@
       <c r="C44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="D44" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>362</v>
+      <c r="D45" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="408" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="225">
+      <c r="A61" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="225">
-      <c r="A60" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="71">
+      <c r="A62" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" ht="71">
-      <c r="A61" s="5" t="s">
+      <c r="B62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="370">
+      <c r="A63" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" ht="370">
-      <c r="A62" s="5" t="s">
+      <c r="B63" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="165">
-      <c r="A63" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="C63" s="5" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="165">
+      <c r="A64" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="342">
+      <c r="A65" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="342">
-      <c r="A64" s="5" t="s">
+      <c r="B65" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C65" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="240">
+      <c r="A66" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="B66" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="240">
-      <c r="A65" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="67" spans="1:5" ht="29">
+      <c r="A67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="B67" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="270">
+      <c r="A68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="29">
-      <c r="A66" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" ht="270">
-      <c r="A67" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="10" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="409.6">
+      <c r="A69" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="135">
+      <c r="A70" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="409.6">
-      <c r="A68" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="135">
-      <c r="A69" s="5" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="5" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="8" t="s">
+    </row>
+    <row r="71" spans="1:5" ht="197">
+      <c r="A71" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="197">
-      <c r="A70" s="5" t="s">
+      <c r="B71" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C71" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" ht="29">
+      <c r="A72" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" ht="29">
-      <c r="A71" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C72" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="165">
+      <c r="A73" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" ht="165">
-      <c r="A72" s="5" t="s">
+      <c r="B73" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C73" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="8" t="s">
+    </row>
+    <row r="74" spans="1:5" ht="280" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="409" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="85">
+      <c r="A76" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="280" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="409" customHeight="1">
-      <c r="A74" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="85">
-      <c r="A75" s="12" t="s">
+      <c r="B76" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="C76" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="285">
+      <c r="A77" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="225">
+      <c r="A78" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" ht="285">
-      <c r="A76" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="225">
-      <c r="A77" s="5" t="s">
+      <c r="B78" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="29">
+      <c r="A79" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" ht="29">
-      <c r="A78" s="5" t="s">
+      <c r="B79" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="C79" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="57">
+      <c r="A80" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="5" t="s">
+      <c r="B80" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="C80" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D80" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" ht="127">
+      <c r="A81" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" ht="127">
-      <c r="A80" s="5" t="s">
+      <c r="B81" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="165">
-      <c r="A81" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="409.6">
+        <v>223</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="165">
       <c r="A82" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="E82" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="409.6">
+      <c r="A83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43">
+      <c r="A84" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="43">
-      <c r="A83" s="5" t="s">
+      <c r="B84" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" ht="225">
-      <c r="A84" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>378</v>
-      </c>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="225">
       <c r="A85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="225">
+      <c r="A86" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="195">
+      <c r="A87" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="195">
-      <c r="A86" s="5" t="s">
+      <c r="B87" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="370">
-      <c r="A87" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="300">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="370">
       <c r="A88" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="328">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="300">
       <c r="A89" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="328">
       <c r="A90" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="255">
+      <c r="A91" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="328">
+      <c r="A92" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="5" t="s">
+      <c r="B93" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="C93" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D93" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" ht="57">
+      <c r="A94" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" ht="57">
-      <c r="A92" s="5" t="s">
+      <c r="B94" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C94" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" ht="165">
+      <c r="A95" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" ht="165">
-      <c r="A93" s="5" t="s">
+      <c r="B95" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="225">
-      <c r="A94" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="342">
-      <c r="A95" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="225">
+      <c r="A96" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="342">
+      <c r="A97" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="240">
+      <c r="A98" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="240">
-      <c r="A96" s="5" t="s">
+      <c r="B98" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" ht="105">
-      <c r="A98" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="60">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
       <c r="A99" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="180">
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" ht="105">
       <c r="A100" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="165">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="60">
       <c r="A101" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="285">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="180">
       <c r="A102" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>291</v>
+        <v>282</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="135">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="165">
       <c r="A103" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="384">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="285">
       <c r="A104" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="180">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="135">
       <c r="A105" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>385</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="135">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="384">
       <c r="A106" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="57">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="180">
       <c r="A107" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" ht="225">
+        <v>384</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="135">
       <c r="A108" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="57">
+      <c r="A109" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" ht="225">
+      <c r="A110" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="150">
+      <c r="A111" s="5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="150">
-      <c r="A109" s="5" t="s">
+      <c r="B111" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="C111" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="255">
-      <c r="A110" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="285">
-      <c r="A111" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="409.6">
+      <c r="A112" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="285">
+      <c r="A113" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="225">
+      <c r="A114" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="225">
-      <c r="A112" s="5" t="s">
+      <c r="B114" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="C114" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D114" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="43">
+      <c r="A115" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="B115" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="1:5" ht="150">
+      <c r="A116" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="240">
+      <c r="A117" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="43">
-      <c r="A113" s="5" t="s">
+    </row>
+    <row r="118" spans="1:5" ht="180">
+      <c r="A118" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E113" s="8"/>
-    </row>
-    <row r="114" spans="1:5" ht="150">
-      <c r="A114" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="240">
-      <c r="A115" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="180">
-      <c r="A116" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B116" s="10" t="s">
+      <c r="E118" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="239">
+      <c r="A119" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="239">
-      <c r="A117" s="5" t="s">
+      <c r="B119" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C119" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" ht="14">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="21"/>
-    </row>
-    <row r="119" spans="1:5" ht="14">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="21"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="14">
       <c r="A120" s="7"/>
@@ -11414,6 +11570,20 @@
       <c r="C1037" s="7"/>
       <c r="D1037" s="7"/>
       <c r="E1037" s="21"/>
+    </row>
+    <row r="1038" spans="1:5" ht="14">
+      <c r="A1038" s="7"/>
+      <c r="B1038" s="7"/>
+      <c r="C1038" s="7"/>
+      <c r="D1038" s="7"/>
+      <c r="E1038" s="21"/>
+    </row>
+    <row r="1039" spans="1:5" ht="14">
+      <c r="A1039" s="7"/>
+      <c r="B1039" s="7"/>
+      <c r="C1039" s="7"/>
+      <c r="D1039" s="7"/>
+      <c r="E1039" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11462,67 +11632,68 @@
     <hyperlink ref="B57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="B59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B70" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B83" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B85" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B90" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B91" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B92" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B93" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B94" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B95" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B97" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B98" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B100" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B101" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B102" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B103" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B104" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B107" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B108" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B109" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B111" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B112" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B113" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B114" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B117" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B67" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B78" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B79" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B80" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B81" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B82" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B84" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B85" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B86" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B87" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B88" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B89" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B90" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B104" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B105" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B106" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B107" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B109" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B111" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B115" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B116" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B117" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B118" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B119" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
     <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
-    <hyperlink ref="D44" r:id="rId100" xr:uid="{7F191D76-E8E5-C644-803F-C303BDB3A45A}"/>
-    <hyperlink ref="D79" r:id="rId101" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B76" r:id="rId102" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B73" r:id="rId103" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B74" r:id="rId104" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
-    <hyperlink ref="B68" r:id="rId105" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
-    <hyperlink ref="B110" r:id="rId106" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="D80" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B77" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B74" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B75" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B69" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B112" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="B91" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
+    <hyperlink ref="B60" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A141606-F02C-AB44-8E17-2F77168418CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36F37B-208F-E248-9E9A-8F6028132AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3297,7 +3297,7 @@
   <dimension ref="A1:F1039"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36F37B-208F-E248-9E9A-8F6028132AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E06A30-2525-9B42-B8AD-D373AA530ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="429">
   <si>
     <t>Problem</t>
   </si>
@@ -288,32 +288,6 @@
     <t>arrays, binary_search</t>
   </si>
   <si>
-    <t>int getCeil(int a[],int start,int end,int key){
-    while(end-start &gt; 1){
-         int mid = start +(end - start)/2;
-         if(a[mid]&gt;=key){
-             end = mid;
-         }
-         else{
-             start = mid;
-         }
-    }
-    return a[end];
-}
-int getFloor(int a[],int start,int end,int key){
-    while(end-start &gt; 1){
-         int mid = start +(end - start)/2;
-         if(a[mid]&lt;=key){
-             start = mid;
-         }
-         else{
-             end = mid;
-         }
-    }
-    return a[start];
-}</t>
-  </si>
-  <si>
     <t>Spiral Matrix</t>
   </si>
   <si>
@@ -441,17 +415,6 @@
 s2[i] = s1[i - 1] + prices[i]; // Only one way from s1</t>
   </si>
   <si>
-    <t xml:space="preserve">                s1[0] = -prices[0];
-                s0[0] = 0;
-                s2[0] = INT_MIN;
-                for (int i = 1; i &lt; prices.size(); i++) {
-                        s0[i] = max(s0[i - 1], s2[i - 1]);
-                        s1[i] = max(s1[i - 1], s0[i - 1] - prices[i]);
-                        s2[i] = s1[i - 1] + prices[i];
-                }
-                return max(s0[prices.size() - 1], s2[prices.size() - 1]);// s1 state is when a share is bought. So obviously it will be less</t>
-  </si>
-  <si>
     <t>Product of Array Except Self No division</t>
   </si>
   <si>
@@ -468,38 +431,6 @@
   </si>
   <si>
     <t>arrays, sort</t>
-  </si>
-  <si>
-    <t>// two pass O(m+n) space
-void sortColors(int A[], int n) {
-    int num0 = 0, num1 = 0, num2 = 0;
-    for(int i = 0; i &lt; n; i++) {
-        if (A[i] == 0) ++num0;
-        else if (A[i] == 1) ++num1;
-        else if (A[i] == 2) ++num2;
-    }
-    for(int i = 0; i &lt; num0; ++i) A[i] = 0;
-    for(int i = 0; i &lt; num1; ++i) A[num0+i] = 1;
-    for(int i = 0; i &lt; num2; ++i) A[num0+num1+i] = 2;
-}
-// one pass in place solution. Intuition: you need to move n2 and n1 if you want to insert a '0', but you don't need to move n0 and n1 when inserting a '2' since n2 is at the end of the array
-void sortColors(int A[], int n) {
-    int n0 = -1, n1 = -1, n2 = -1;
-    for (int i = 0; i &lt; n; ++i) {
-        if (A[i] == 0) 
-        {
-            A[++n2] = 2; A[++n1] = 1; A[++n0] = 0;
-        }
-        else if (A[i] == 1) 
-        {
-            A[++n2] = 2; A[++n1] = 1;
-        }
-        else if (A[i] == 2) 
-        {
-            A[++n2] = 2;
-        }
-    }
-}</t>
   </si>
   <si>
     <t>Array Adjustment</t>
@@ -1835,10 +1766,6 @@
     <t>1. If the target x is less or equal than the first element in the sorted array, the first k elements are the result.
 2. Similarly, if the target x is more or equal than the last element in the sorted array, the last k elements are the result.
 3. Otherwise, we can use binary search to find the index of the element, which is equal (when this list has x) or a little bit larger than x (when this list does not have it). Then set low to its left k-1 position, and high to the right k-1 position of this index as a start. The desired k numbers must in this rang [index-k-1, index+k-1]. So we can shrink this range to get the result</t>
-  </si>
-  <si>
-    <t>Reach a condition when end-start = 1. For ceiling function, if mid is equal to key, return mid by setting it to end. It will mean that start is end - 1 and ceil(2) = 2.
-Similarly for floor function, if mid is equal to key, return mid by setting it to start and floor(3) = 3.</t>
   </si>
   <si>
     <t xml:space="preserve">int rowBegin = 0;
@@ -2865,6 +2792,93 @@
 3. For each leaf, get it's neighbor. Remove the leaf and set the neighbor as new leaf
 4. Repeat until 1 or 2 leaves remain, return it
 Why upto 2? The root can be middle n/2 if n is odd or middle two elements if n is even. Only then height can be minimum. Think of it as median of array.</t>
+  </si>
+  <si>
+    <t>Ceil:
+When l == r, arr[m] &lt; target, so we need to return m + 1
+l = m + 1 will execute, so we return l;
+Floor:
+When l == r, arr[m] &gt; target, so we need to return m - 1
+r = m - 1 will execute, so we return r;
+To avoid negative index when target &lt; arr[0], we use Math.max(0, r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static int binarySearchCeil(int arr[], int x) { 
+        int l = 0, r = arr.length - 1; 
+        while (l &lt;= r) { 
+            int m = l + (r - l) / 2; 
+            if (arr[m] == x) {
+                return m; 
+            }
+            if (arr[m] &lt; x) {
+                l = m + 1; 
+            } else {
+                r = m - 1; 
+            }
+        } 
+        return l; 
+    } 
+    public static int binarySearchFloor(int arr[], int x) { 
+        int l = 0, r = arr.length - 1; 
+        while (l &lt;= r) { 
+            int m = l + (r - l) / 2; 
+            if (arr[m] == x) {
+                return m; 
+            }
+            if (arr[m] &lt; x) {
+                l = m + 1; 
+            } else {
+                r = m - 1; 
+            }
+        } 
+        return Math.max(0, r); 
+    } </t>
+  </si>
+  <si>
+    <t>s1[0] = -prices[0];
+s0[0] = 0;
+s2[0] = INT_MIN;
+for (int i = 1; i &lt; prices.size(); i++) {
+    s0[i] = max(s0[i - 1], s2[i - 1]);
+    s1[i] = max(s1[i - 1], s0[i - 1] - prices[i]);
+    s2[i] = s1[i - 1] + prices[i];
+}
+// s1 state is when a share is bought. So obviously it will be less
+return max(s0[prices.size() - 1], s2[prices.size() - 1]);</t>
+  </si>
+  <si>
+    <t>// two pass O(m+n) space
+void sortColors(int A[], int n) {
+    int num0 = 0, num1 = 0, num2 = 0;
+    for(int i = 0; i &lt; n; i++) {
+        if (A[i] == 0) ++num0;
+        else if (A[i] == 1) ++num1;
+        else if (A[i] == 2) ++num2;
+    }
+    for(int i = 0; i &lt; num0; ++i) A[i] = 0;
+    for(int i = 0; i &lt; num1; ++i) A[num0+i] = 1;
+    for(int i = 0; i &lt; num2; ++i) A[num0+num1+i] = 2;
+}
+void sortColors(int A[], int n) {
+    int n0 = -1, n1 = -1, n2 = -1;
+    for (int i = 0; i &lt; n; ++i) {
+        if (A[i] == 0) 
+        {
+            A[++n2] = 2; A[++n1] = 1; A[++n0] = 0;
+        }
+        else if (A[i] == 1) 
+        {
+            A[++n2] = 2; A[++n1] = 1;
+        }
+        else if (A[i] == 2) 
+        {
+            A[++n2] = 2;
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>one pass in place solution. Intuition: you need to move n2 and n1 if you want to insert a '0', but you don't need to move n0 and n1 when inserting a '2' since n2 is at the end of the array</t>
   </si>
 </sst>
 </file>
@@ -3296,8 +3310,8 @@
   </sheetPr>
   <dimension ref="A1:F1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3363,7 +3377,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3472,7 +3486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="370">
+    <row r="13" spans="1:6" ht="409.6">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -3481,1667 +3495,1669 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
       <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
       <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
       <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="255">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
       <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90">
       <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
       <c r="A20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
       <c r="A21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>64</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="E23" s="8" t="s">
-        <v>71</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="120">
       <c r="A41" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="135">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="408" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="210">
       <c r="A45" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="225">
       <c r="A46" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29">
       <c r="A47" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="398">
       <c r="A48" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="113">
       <c r="A49" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="57">
       <c r="A52" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="314">
       <c r="A53" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="195">
       <c r="A55" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29">
       <c r="A56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="165">
       <c r="A57" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="85">
       <c r="A58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="408" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="408" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="225">
       <c r="A61" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="71">
       <c r="A62" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="370">
       <c r="A63" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="165">
       <c r="A64" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="342">
       <c r="A65" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="240">
       <c r="A66" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29">
       <c r="A67" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="270">
       <c r="A68" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="409.6">
       <c r="A69" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>408</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="135">
       <c r="A70" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="197">
       <c r="A71" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="29">
       <c r="A72" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" ht="165">
       <c r="A73" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="280" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="409" customHeight="1">
       <c r="A75" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>402</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85">
       <c r="A76" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="285">
       <c r="A77" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="225">
       <c r="A78" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" ht="29">
       <c r="A79" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="57">
       <c r="A80" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" ht="127">
       <c r="A81" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="165">
       <c r="A82" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="409.6">
       <c r="A83" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="43">
       <c r="A84" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="225">
       <c r="A85" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="225">
       <c r="A86" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="195">
       <c r="A87" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="370">
       <c r="A88" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="300">
       <c r="A89" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="328">
       <c r="A90" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="255">
       <c r="A91" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="328">
       <c r="A92" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15">
       <c r="A93" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" ht="57">
       <c r="A94" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" ht="165">
       <c r="A95" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="225">
       <c r="A96" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="342">
       <c r="A97" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="240">
       <c r="A98" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15">
       <c r="A99" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="105">
       <c r="A100" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60">
       <c r="A101" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="180">
       <c r="A102" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="165">
       <c r="A103" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="285">
       <c r="A104" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="135">
       <c r="A105" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="384">
       <c r="A106" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="180">
       <c r="A107" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="135">
       <c r="A108" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="57">
       <c r="A109" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" ht="225">
       <c r="A110" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="150">
       <c r="A111" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="409.6">
       <c r="A112" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="285">
       <c r="A113" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="225">
       <c r="A114" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="43">
       <c r="A115" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="150">
       <c r="A116" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="240">
       <c r="A117" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="180">
       <c r="A118" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="239">
       <c r="A119" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="E119" s="8"/>
     </row>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E06A30-2525-9B42-B8AD-D373AA530ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B781238-EA21-6846-8B91-EEBC7DA6CA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="433">
   <si>
     <t>Problem</t>
   </si>
@@ -804,30 +804,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   public boolean canPartitionKSubsets(int[] nums, int k) {
-        int sum = 0;
-        for(int num:nums)sum += num;
-        if(k &lt;= 0 || sum%k != 0)return false;
-        int[] visited = new int[nums.length];
-        return canPartition(nums, visited, 0, k, 0, 0, sum/k);
-    }
-    public boolean canPartition(int[] nums, int[] visited, int start_index, int k, int cur_sum, int cur_num, int target){
-        if(k==1)return true;
-        if(cur_sum == target &amp;&amp; cur_num&gt;0)return canPartition(nums, visited, 0, k-1, 0, 0, target);
-        for(int i = start_index; i&lt;nums.length; i++){
-            if(visited[i] == 0){
-                visited[i] = 1;
-                if(canPartition(nums, visited, i+1, k, cur_sum + nums[i], cur_num++, target))return true;
-                visited[i] = 0;
-            }
-        }
-        return false;
-    }</t>
   </si>
   <si>
     <t>Merge Accounts</t>
@@ -2879,6 +2855,79 @@
   </si>
   <si>
     <t>one pass in place solution. Intuition: you need to move n2 and n1 if you want to insert a '0', but you don't need to move n0 and n1 when inserting a '2' since n2 is at the end of the array</t>
+  </si>
+  <si>
+    <t>public boolean canPartitionKSubsets(int[] a, int k) {
+    int sum = IntStream.of(a).sum();
+    return k != 0 &amp;&amp; sum % k == 0 &amp;&amp; canPartition(0, a, new boolean[a.length], k, 0, sum / k);
+}
+boolean canPartition(int start, int[] a, boolean[] seen, int k, int sum, int target) {
+    if (k == 1) return true;
+    if (sum == target)
+        return canPartition(0, a, seen, k - 1, 0, target);
+    for (int i = start; i &lt; a.length; i++)
+        if (!seen[i]) {
+            seen[i] = true;
+            if (canPartition(i + 1, a, seen, k, sum + a[i], target))
+                return true;
+            seen[i] = false;
+        }
+    return false;
+}</t>
+  </si>
+  <si>
+    <t>dfs, backtracking</t>
+  </si>
+  <si>
+    <t>Coin Change 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-2/</t>
+  </si>
+  <si>
+    <t>2 choices at every step: Either include the coin in the result or exclude it
+dp[i][j] = combinations for selecting amount j for i coins</t>
+  </si>
+  <si>
+    <t>public int recurse(int amount, int[] coins, int i) {
+    if (amount == 0) {
+        return 1;
+    } else if (amount &lt; 0) {
+        return 0;
+    } else if (amount &gt; 0 &amp;&amp; i == coins.length) {
+        return 0;
+    } else {
+        return recurse(amount - coins[i], coins, i) +
+            recurse(amount, coins, i + 1);
+    } 
+}
+//2d dp
+public int change(int amount, int[] coins) {
+    int[][] dp = new int[coins.length + 1][amount + 1];
+    dp[0][0] = 1; 
+    for (int i = 1; i &lt;= coins.length; i++) {
+        dp[i][0] = 1; // number ways of selecting for amount zero is 1
+        for (int j = 1; j &lt;= amount; j++) {
+            dp[i][j] = dp[i - 1][j]; // exclude 
+            if (j - coins[i - 1] &gt;= 0) { 
+                dp[i][j] += dp[i][j - coins[i - 1]]; // include
+            }
+        }
+    }
+    return dp[coins.length][amount];
+}
+//1d dp
+public int change(int amount, int[] coins) {
+    int n = coins.length;
+    int[] dp = new int[amount + 1]; 
+    dp[0] = 1; // this is done to signify amount = 0 and add 1 to the result
+    for (int coin: coins) {
+        for (int i = 1; i &lt; dp.length; i++) { //iterate amount
+            dp[j] += dp[i - coin]; 
+        }
+    }
+    return dp[amount];
+}</t>
   </si>
 </sst>
 </file>
@@ -3308,10 +3357,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1039"/>
+  <dimension ref="A1:F1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3377,7 +3426,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3495,10 +3544,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
@@ -3512,10 +3561,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
@@ -3529,10 +3578,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
@@ -3561,10 +3610,10 @@
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
@@ -3595,10 +3644,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
@@ -3612,7 +3661,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>59</v>
@@ -3632,7 +3681,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
@@ -3661,10 +3710,10 @@
         <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
@@ -3687,13 +3736,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -3708,10 +3757,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
@@ -3734,16 +3783,16 @@
         <v>78</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
@@ -3803,7 +3852,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
@@ -3847,10 +3896,10 @@
         <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
@@ -3865,7 +3914,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
@@ -3895,7 +3944,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -3909,1264 +3958,1274 @@
         <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.6">
+      <c r="A41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="120">
-      <c r="A41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>353</v>
+        <v>114</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="120">
       <c r="A42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="135">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="120">
       <c r="A43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="135">
+      <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="8" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="408" customHeight="1">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:5" ht="408" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="210">
-      <c r="A45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="225">
+        <v>416</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="210">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="E46" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="29">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="225">
       <c r="A47" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="398">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29">
       <c r="A48" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="113">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="398">
       <c r="A49" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="113">
+      <c r="A50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" ht="409.6">
-      <c r="A50" s="5" t="s">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="409.6">
+      <c r="A51" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="5" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" ht="57">
-      <c r="A52" s="12" t="s">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="57">
+      <c r="A53" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" ht="314">
-      <c r="A53" s="5" t="s">
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" ht="270">
+      <c r="A54" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="409.6">
-      <c r="A54" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="409.6">
+      <c r="A55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="195">
+      <c r="A56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="195">
-      <c r="A55" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="10" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="29">
+      <c r="A57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="29">
-      <c r="A56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="D57" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="165">
+      <c r="A58" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="B58" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="165">
-      <c r="A57" s="5" t="s">
+      <c r="C58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="85">
+      <c r="A59" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="408" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="85">
-      <c r="A58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="408" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="61" spans="1:5" ht="408" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="225">
+      <c r="A62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B62" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="408" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="225">
-      <c r="A61" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="71">
+      <c r="A63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="B63" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" ht="71">
-      <c r="A62" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" ht="370">
+      <c r="A64" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="B64" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" ht="370">
-      <c r="A63" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="165">
-      <c r="A64" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="165">
+      <c r="A65" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="342">
+      <c r="A66" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="342">
-      <c r="A65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="D66" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="240">
+      <c r="A67" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="B67" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="240">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="29">
+      <c r="A68" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C68" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="270">
+      <c r="A69" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29">
-      <c r="A67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" ht="270">
-      <c r="A68" s="5" t="s">
+    <row r="70" spans="1:5" ht="409.6">
+      <c r="A70" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="135">
+      <c r="A71" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="409.6">
-      <c r="A69" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="135">
-      <c r="A70" s="5" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="5" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="197">
+      <c r="A72" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="197">
-      <c r="A71" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" ht="29">
+      <c r="A73" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:5" ht="29">
-      <c r="A72" s="12" t="s">
+      <c r="C73" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="165">
+      <c r="A74" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="165">
-      <c r="A73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="5" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="280" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="409" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="85">
+      <c r="A77" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="280" customHeight="1">
-      <c r="A74" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="409" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="85">
-      <c r="A76" s="12" t="s">
+      <c r="C77" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="285">
+      <c r="A78" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="225">
+      <c r="A79" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" ht="285">
-      <c r="A77" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="225">
-      <c r="A78" s="5" t="s">
+      <c r="C79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="29">
+      <c r="A80" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="B80" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" ht="29">
-      <c r="A79" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="57">
+      <c r="A81" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="B81" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" ht="57">
-      <c r="A80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="D81" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" ht="127">
+      <c r="A82" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="B82" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" ht="127">
-      <c r="A81" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" ht="165">
-      <c r="A82" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="409.6">
+        <v>218</v>
+      </c>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="165">
       <c r="A83" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="E83" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="409.6">
+      <c r="A84" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43">
+      <c r="A85" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="43">
-      <c r="A84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="D85" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" ht="225">
-      <c r="A85" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="225">
       <c r="A86" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="225">
+      <c r="A87" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="D87" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="195">
+      <c r="A88" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="B88" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="195">
-      <c r="A87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="370">
-      <c r="A88" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="300">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="370">
       <c r="A89" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="328">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="300">
       <c r="A90" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="328">
+      <c r="A91" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="255">
+      <c r="A92" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="328">
+      <c r="A93" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="255">
-      <c r="A91" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="328">
-      <c r="A92" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B92" s="10" t="s">
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="D94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" ht="57">
+      <c r="A95" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="B95" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" ht="57">
-      <c r="A94" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" ht="165">
+      <c r="A96" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="B96" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" ht="165">
-      <c r="A95" s="5" t="s">
+      <c r="C96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B95" s="10" t="s">
+    </row>
+    <row r="97" spans="1:5" ht="225">
+      <c r="A97" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="225">
-      <c r="A96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="D97" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="342">
+      <c r="A98" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="B98" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="342">
-      <c r="A97" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="240">
-      <c r="A98" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="240">
+      <c r="A99" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="D100" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" ht="105">
+      <c r="A101" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="B101" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" ht="105">
-      <c r="A100" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="60">
-      <c r="A101" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="180">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60">
       <c r="A102" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="165">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="180">
       <c r="A103" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="285">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="165">
       <c r="A104" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="135">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="285">
       <c r="A105" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="384">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="135">
       <c r="A106" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="384">
+      <c r="A107" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="180">
+      <c r="A108" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="180">
-      <c r="A107" s="5" t="s">
+      <c r="C108" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="135">
+      <c r="A109" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B109" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="135">
-      <c r="A108" s="5" t="s">
+      <c r="C109" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B108" s="9" t="s">
+    </row>
+    <row r="110" spans="1:5" ht="57">
+      <c r="A110" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="8" t="s">
+      <c r="B110" s="10" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="57">
-      <c r="A109" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="D110" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5" ht="225">
+      <c r="A111" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="B111" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" ht="225">
-      <c r="A110" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="150">
-      <c r="A111" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>309</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="150">
+      <c r="A112" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="409.6">
+      <c r="A113" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="285">
+      <c r="A114" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="409.6">
-      <c r="A112" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="285">
-      <c r="A113" s="5" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="5" t="s">
+    </row>
+    <row r="115" spans="1:5" ht="225">
+      <c r="A115" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="8" t="s">
+      <c r="B115" s="20" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="225">
-      <c r="A114" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="D115" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="43">
+      <c r="A116" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="B116" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D116" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" spans="1:5" ht="150">
+      <c r="A117" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="240">
+      <c r="A118" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="43">
-      <c r="A115" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116" spans="1:5" ht="150">
-      <c r="A116" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="240">
-      <c r="A117" s="5" t="s">
+    <row r="119" spans="1:5" ht="180">
+      <c r="A119" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C119" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="180">
-      <c r="A118" s="5" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="239">
+      <c r="A120" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="239">
-      <c r="A119" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="D120" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120" spans="1:5" ht="14">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="21"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" ht="14">
       <c r="A121" s="7"/>
@@ -11600,6 +11659,13 @@
       <c r="C1039" s="7"/>
       <c r="D1039" s="7"/>
       <c r="E1039" s="21"/>
+    </row>
+    <row r="1040" spans="1:5" ht="14">
+      <c r="A1040" s="7"/>
+      <c r="B1040" s="7"/>
+      <c r="C1040" s="7"/>
+      <c r="D1040" s="7"/>
+      <c r="E1040" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11628,88 +11694,89 @@
     <hyperlink ref="B37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B41" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B67" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B78" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B79" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B80" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B81" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B82" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B84" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B85" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B86" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B87" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B88" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B89" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B90" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B104" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B105" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B106" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B107" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B109" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B111" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B115" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B116" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B117" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B118" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B119" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B77" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B79" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B80" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B82" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B84" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B108" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B109" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B110" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B111" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B114" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B115" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B116" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B117" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
     <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
-    <hyperlink ref="D80" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B77" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B74" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B75" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
-    <hyperlink ref="B69" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
-    <hyperlink ref="B112" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
-    <hyperlink ref="B91" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
-    <hyperlink ref="B60" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
+    <hyperlink ref="D81" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B78" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B75" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B76" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B70" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B113" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="B92" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
+    <hyperlink ref="B61" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
+    <hyperlink ref="B40" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B781238-EA21-6846-8B91-EEBC7DA6CA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BAEEC-024F-9744-9CF7-8CD14A97D8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="442">
   <si>
     <t>Problem</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets</t>
+  </si>
+  <si>
+    <t>dfs</t>
   </si>
   <si>
     <t>Merge Accounts</t>
@@ -2923,11 +2926,101 @@
     dp[0] = 1; // this is done to signify amount = 0 and add 1 to the result
     for (int coin: coins) {
         for (int i = 1; i &lt; dp.length; i++) { //iterate amount
-            dp[j] += dp[i - coin]; 
+            if (i &gt;= coin) { 
+                dp[i] += dp[i - coin]; 
+            }
         }
     }
     return dp[amount];
 }</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>//naive 
+public int pathSum(TreeNode root, int sum) {
+    if(root == null)
+        return 0;
+    return findPath(root, sum) + pathSum(root.left, sum) + pathSum(root.right, sum);
+}
+public int findPath(TreeNode root, int sum){
+    int res = 0;
+    if(root == null)
+        return res;
+    if(sum == root.val)
+        res++;
+    res += findPath(root.left, sum - root.val);
+    res += findPath(root.right, sum - root.val);
+    return res;
+}
+//using HashSet
+public int pathSum(TreeNode root, int sum) {
+    if (root == null) {
+        return 0;
+    }
+    Map&lt;Integer, Integer&gt; map = new HashMap&lt;&gt;();
+    map.put(0, 1);
+    return findPathSum(root, 0, sum, map);
+}
+private int findPathSum(TreeNode curr, int sum, int target, Map&lt;Integer, Integer&gt; map) {
+    if (curr == null) {
+        return 0;
+    }
+    sum += curr.val;
+    int numPathToCurr = map.getOrDefault(sum - target, 0); 
+    map.put(sum, map.getOrDefault(sum, 0) + 1);
+    int res = numPathToCurr + findPathSum(curr.left, sum, target, map) + findPathSum(curr.right, sum, target, map);
+    map.put(sum, map.get(sum) - 1); //backtrack
+    return res;
+}</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/discuss/91915/My-detailed-explanation-to-the-HashMap-method</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-divisible-subset/</t>
+  </si>
+  <si>
+    <t>Largest divisible subset</t>
+  </si>
+  <si>
+    <t>public List&lt;Integer&gt; largestDivisibleSubset(int[] nums) {
+    int[] l = new int[nums.length]; 
+    int[] prev = new int[nums.length]; // to print the subset
+    Arrays.sort(nums);
+    int max = 0;
+    int index = -1;
+    for (int i = 0; i &lt; nums.length; i++){
+        l[i] = 1;
+        prev[i] = -1;
+        for (int j = i - 1; j &gt;= 0; j--){
+            if (nums[i] % nums[j] == 0 &amp;&amp; l[j] + 1 &gt; l[i]){
+                l[i] = l[j] + 1;
+                prev[i] = j;
+            }
+        }
+        if (l[i] &gt; max){
+            max = l[i];
+            index = i;
+        }
+    }
+    // return the subset
+    List&lt;Integer&gt; res = new ArrayList&lt;Integer&gt;();
+    while (index != -1){
+        res.add(nums[index]);
+        index = prev[index];
+    }
+    return res;
+}</t>
+  </si>
+  <si>
+    <t>dp[i] = the length of largestDivisibleSubset that ends with element i 
+The purpose of sorting is to make sure that all divisors of an element appear before it.
+dp[i] = max(dp[j]) + 1 for i &gt; j &gt;= 0</t>
   </si>
 </sst>
 </file>
@@ -3357,10 +3450,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1040"/>
+  <dimension ref="A1:F1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3426,7 +3519,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3544,10 +3637,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
@@ -3561,10 +3654,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
@@ -3578,10 +3671,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
@@ -3610,10 +3703,10 @@
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
@@ -3644,10 +3737,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
@@ -3661,7 +3754,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>59</v>
@@ -3681,7 +3774,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
@@ -3710,10 +3803,10 @@
         <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
@@ -3736,13 +3829,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -3757,10 +3850,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
@@ -3783,16 +3876,16 @@
         <v>78</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
@@ -3852,7 +3945,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
@@ -3896,10 +3989,10 @@
         <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
@@ -3914,7 +4007,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
@@ -3944,7 +4037,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -3958,27 +4051,27 @@
         <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6">
@@ -3995,113 +4088,115 @@
         <v>114</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="120">
-      <c r="A42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E42" s="8" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.6">
+      <c r="A42" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="120">
       <c r="A43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="120">
+      <c r="A44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="135">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="135">
+      <c r="A45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="8" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="408" customHeight="1">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:5" ht="408" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="210">
-      <c r="A46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="225">
+        <v>417</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="210">
       <c r="A47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="E47" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="29">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="225">
       <c r="A48" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>108</v>
@@ -4111,1135 +4206,1153 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="398">
+    <row r="49" spans="1:5" ht="29">
       <c r="A49" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="113">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="398">
       <c r="A50" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="113">
+      <c r="A51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" ht="409.6">
-      <c r="A51" s="5" t="s">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="409.6">
+      <c r="A52" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="5" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" ht="57">
-      <c r="A53" s="12" t="s">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="57">
+      <c r="A54" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" ht="270">
-      <c r="A54" s="5" t="s">
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" ht="270">
+      <c r="A55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="409.6">
-      <c r="A55" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="409.6">
+      <c r="A56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="195">
-      <c r="A56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="10" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="195">
+      <c r="A57" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="B57" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="29">
-      <c r="A57" s="5" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="29">
+      <c r="A58" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B58" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" ht="165">
-      <c r="A58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="165">
+      <c r="A59" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="B59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="85">
-      <c r="A59" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="10" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="85">
+      <c r="A60" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B60" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" ht="408" customHeight="1">
-      <c r="A60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="408" customHeight="1">
+      <c r="A61" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="408" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B61" s="23" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="408" customHeight="1">
+      <c r="A62" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="B62" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="225">
-      <c r="A62" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="9" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="225">
+      <c r="A63" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="B63" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" ht="71">
-      <c r="A63" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" ht="71">
+      <c r="A64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="B64" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" ht="370">
-      <c r="A64" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" ht="370">
+      <c r="A65" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="8" t="s">
+      <c r="B65" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="165">
-      <c r="A65" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="409.6">
+      <c r="A66" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="165">
+      <c r="A67" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="342">
-      <c r="A66" s="5" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="10" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="342">
+      <c r="A68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="B68" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="240">
-      <c r="A67" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="E68" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="240">
+      <c r="A69" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="B69" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29">
-      <c r="A68" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="10" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="29">
+      <c r="A70" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="B70" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" ht="270">
-      <c r="A69" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="270">
+      <c r="A71" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="B71" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="409.6">
-      <c r="A70" s="7" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="409.6">
+      <c r="A72" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="135">
+      <c r="A73" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="197">
+      <c r="A74" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" ht="29">
+      <c r="A75" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="165">
+      <c r="A76" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="280" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="409" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="135">
-      <c r="A71" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="8" t="s">
+      <c r="E78" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="85">
+      <c r="A79" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="197">
-      <c r="A72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="1:5" ht="29">
-      <c r="A73" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="165">
-      <c r="A74" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="280" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="D79" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="285">
+      <c r="A80" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="409" customHeight="1">
-      <c r="A76" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="85">
-      <c r="A77" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" ht="285">
-      <c r="A78" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="E80" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="E78" s="21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="225">
-      <c r="A79" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B79" s="10" t="s">
+    </row>
+    <row r="81" spans="1:5" ht="225">
+      <c r="A81" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="B81" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" ht="29">
-      <c r="A80" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="29">
+      <c r="A82" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="B82" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="57">
-      <c r="A81" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="57">
+      <c r="A83" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="B83" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="C83" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" ht="127">
-      <c r="A82" s="5" t="s">
+      <c r="D83" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" ht="127">
+      <c r="A84" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="B84" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" ht="165">
-      <c r="A83" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="409.6">
-      <c r="A84" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="8" t="s">
+      <c r="D84" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="165">
+      <c r="A85" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="409.6">
+      <c r="A86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="43">
-      <c r="A85" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" ht="225">
-      <c r="A86" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="43">
+      <c r="A87" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="225">
+      <c r="A88" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="225">
-      <c r="A87" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B87" s="10" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="225">
+      <c r="A89" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="B89" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E87" s="8" t="s">
+      <c r="C89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="195">
-      <c r="A88" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="E89" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="195">
+      <c r="A90" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="B90" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="8" t="s">
+      <c r="C90" s="5" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="370">
-      <c r="A89" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="300">
-      <c r="A90" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="328">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="370">
       <c r="A91" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="255">
-      <c r="A92" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="21" t="s">
-        <v>413</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="300">
+      <c r="A92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="328">
       <c r="A93" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="255">
+      <c r="A94" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="328">
+      <c r="A95" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="9" t="s">
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="B96" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="C96" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" ht="57">
-      <c r="A95" s="5" t="s">
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" ht="57">
+      <c r="A97" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" ht="165">
-      <c r="A96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" ht="165">
+      <c r="A98" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="225">
-      <c r="A97" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="342">
-      <c r="A98" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="225">
+      <c r="A99" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="342">
+      <c r="A100" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="240">
-      <c r="A99" s="5" t="s">
+      <c r="C100" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="10" t="s">
+    </row>
+    <row r="101" spans="1:5" ht="240">
+      <c r="A101" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="8" t="s">
+      <c r="B101" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="1:5" ht="105">
-      <c r="A101" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" ht="105">
+      <c r="A103" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="60">
-      <c r="A102" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="180">
-      <c r="A103" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="165">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="60">
       <c r="A104" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="285">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="180">
       <c r="A105" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="135">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="165">
       <c r="A106" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="384">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="285">
       <c r="A107" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="135">
+      <c r="A108" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="384">
+      <c r="A109" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="180">
-      <c r="A108" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="135">
-      <c r="A109" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="180">
+      <c r="A110" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="135">
+      <c r="A111" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="57">
-      <c r="A110" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E110" s="8"/>
-    </row>
-    <row r="111" spans="1:5" ht="225">
-      <c r="A111" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>304</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="57">
+      <c r="A112" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" ht="225">
+      <c r="A113" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="150">
-      <c r="A112" s="5" t="s">
+      <c r="C113" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B112" s="20" t="s">
+    </row>
+    <row r="114" spans="1:5" ht="150">
+      <c r="A114" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="B114" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="8" t="s">
+      <c r="C114" s="5" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="409.6">
-      <c r="A113" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="285">
-      <c r="A114" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="409.6">
+      <c r="A115" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="285">
+      <c r="A116" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="225">
-      <c r="A115" s="5" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B115" s="20" t="s">
+    </row>
+    <row r="117" spans="1:5" ht="225">
+      <c r="A117" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="B117" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="C117" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="43">
-      <c r="A116" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="5" t="s">
+    </row>
+    <row r="118" spans="1:5" ht="43">
+      <c r="A118" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="B118" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="1:5" ht="150">
+      <c r="A119" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="240">
+      <c r="A120" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="180">
+      <c r="A121" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117" spans="1:5" ht="150">
-      <c r="A117" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="240">
-      <c r="A118" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="180">
-      <c r="A119" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="239">
-      <c r="A120" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B120" s="10" t="s">
+    </row>
+    <row r="122" spans="1:5" ht="239">
+      <c r="A122" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="B122" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E120" s="8"/>
-    </row>
-    <row r="121" spans="1:5" ht="14">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="21"/>
-    </row>
-    <row r="122" spans="1:5" ht="14">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="21"/>
+      <c r="D122" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="14">
       <c r="A123" s="7"/>
@@ -11666,6 +11779,20 @@
       <c r="C1040" s="7"/>
       <c r="D1040" s="7"/>
       <c r="E1040" s="21"/>
+    </row>
+    <row r="1041" spans="1:5" ht="14">
+      <c r="A1041" s="7"/>
+      <c r="B1041" s="7"/>
+      <c r="C1041" s="7"/>
+      <c r="D1041" s="7"/>
+      <c r="E1041" s="21"/>
+    </row>
+    <row r="1042" spans="1:5" ht="14">
+      <c r="A1042" s="7"/>
+      <c r="B1042" s="7"/>
+      <c r="C1042" s="7"/>
+      <c r="D1042" s="7"/>
+      <c r="E1042" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11695,88 +11822,91 @@
     <hyperlink ref="B38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B48" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B77" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B79" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B80" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B82" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B84" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B108" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B109" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B110" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B111" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B114" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B115" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B116" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B117" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B45" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B52" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B95" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B96" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B99" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B100" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B101" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B102" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B104" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B112" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B113" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B114" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B116" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B118" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B119" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B120" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B121" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B122" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
     <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
-    <hyperlink ref="D81" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B78" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B75" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B76" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
-    <hyperlink ref="B70" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
-    <hyperlink ref="B113" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
-    <hyperlink ref="B92" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
-    <hyperlink ref="B61" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
+    <hyperlink ref="D83" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B80" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B77" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B78" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B72" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B115" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="B94" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
+    <hyperlink ref="B62" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
     <hyperlink ref="B40" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
+    <hyperlink ref="B66" r:id="rId109" xr:uid="{84E56487-A0E4-FE4C-906A-E3AF93FBE5B3}"/>
+    <hyperlink ref="D66" r:id="rId110" xr:uid="{D7BF6DAF-B2B6-584D-8ED5-36E1EEFD2F1D}"/>
+    <hyperlink ref="B42" r:id="rId111" xr:uid="{C296BBBB-3D2E-E542-8363-83D848F6819A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BAEEC-024F-9744-9CF7-8CD14A97D8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FBBE8-64D2-BC44-9281-97F120451A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3452,8 +3452,8 @@
   </sheetPr>
   <dimension ref="A1:F1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3615,7 +3615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="270">
+    <row r="12" spans="1:6" ht="255">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:5" ht="270">
+    <row r="71" spans="1:5" ht="255">
       <c r="A71" s="5" t="s">
         <v>189</v>
       </c>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FBBE8-64D2-BC44-9281-97F120451A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ED1A6-054C-0648-A465-79EFF025B934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Binary Search Recursive</t>
-  </si>
-  <si>
-    <t>search, arrays</t>
   </si>
   <si>
     <t xml:space="preserve">    public int binarySearch(int arr[], int l, int r, int x) { 
@@ -1737,9 +1734,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-k-closest-elements/</t>
-  </si>
-  <si>
-    <t>search, two_pointers</t>
   </si>
   <si>
     <t>1. If the target x is less or equal than the first element in the sorted array, the first k elements are the result.
@@ -3021,6 +3015,12 @@
     <t>dp[i] = the length of largestDivisibleSubset that ends with element i 
 The purpose of sorting is to make sure that all divisors of an element appear before it.
 dp[i] = max(dp[j]) + 1 for i &gt; j &gt;= 0</t>
+  </si>
+  <si>
+    <t>binary_search, two_pointers</t>
+  </si>
+  <si>
+    <t>binary_search, arrays</t>
   </si>
 </sst>
 </file>
@@ -3452,8 +3452,8 @@
   </sheetPr>
   <dimension ref="A1:F1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3543,1814 +3543,1814 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="240">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="285">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="225">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="150">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="150">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="255">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.6">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
       <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="342">
       <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29">
       <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="255">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="398">
       <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90">
       <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="370">
       <c r="A20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
       <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="409.6">
       <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
       <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="180">
       <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
       <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="225">
       <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="180">
       <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="225">
       <c r="A31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="370">
       <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="180">
       <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29">
       <c r="A34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="195">
       <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="90">
       <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>431</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6">
       <c r="A41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="409.6">
       <c r="A42" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="120">
       <c r="A43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="120">
       <c r="A44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="135">
       <c r="A45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="408" customHeight="1">
       <c r="A46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="210">
       <c r="A47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="225">
       <c r="A48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29">
       <c r="A49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="398">
       <c r="A50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="113">
       <c r="A51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15">
       <c r="A53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" ht="57">
       <c r="A54" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="270">
       <c r="A55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="409.6">
       <c r="A56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="195">
       <c r="A57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29">
       <c r="A58" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="165">
       <c r="A59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="85">
       <c r="A60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="408" customHeight="1">
       <c r="A61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="408" customHeight="1">
       <c r="A62" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>419</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="225">
       <c r="A63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="71">
       <c r="A64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" ht="370">
       <c r="A65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="409.6">
       <c r="A66" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="165">
       <c r="A67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="342">
       <c r="A68" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="240">
       <c r="A69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="C69" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29">
       <c r="A70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="255">
       <c r="A71" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.6">
       <c r="A72" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="D72" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="E72" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="135">
       <c r="A73" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="197">
       <c r="A74" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" ht="29">
       <c r="A75" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" ht="165">
       <c r="A76" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="280" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B77" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="E77" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B78" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="D78" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="85">
       <c r="A79" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C79" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="285">
       <c r="A80" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>388</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="225">
       <c r="A81" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="29">
       <c r="A82" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="57">
       <c r="A83" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>216</v>
       </c>
       <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" ht="127">
       <c r="A84" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="C84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="165">
       <c r="A85" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="409.6">
       <c r="A86" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="43">
       <c r="A87" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="225">
       <c r="A88" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>230</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="225">
       <c r="A89" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="D89" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="195">
       <c r="A90" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="370">
       <c r="A91" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="300">
       <c r="A92" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="328">
       <c r="A93" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="C93" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="255">
       <c r="A94" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="328">
       <c r="A95" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="D96" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="57">
       <c r="A97" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" ht="165">
       <c r="A98" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="225">
       <c r="A99" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="C99" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="D99" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="342">
       <c r="A100" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="C100" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="240">
       <c r="A101" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15">
       <c r="A102" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="C102" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" ht="105">
       <c r="A103" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="60">
       <c r="A104" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="180">
       <c r="A105" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="165">
       <c r="A106" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>283</v>
-      </c>
       <c r="C106" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="285">
       <c r="A107" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="C107" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="135">
       <c r="A108" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C108" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="384">
       <c r="A109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="C109" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="180">
       <c r="A110" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>296</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="135">
       <c r="A111" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="57">
       <c r="A112" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" ht="225">
       <c r="A113" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="150">
       <c r="A114" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="C114" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="409.6">
       <c r="A115" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B115" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="285">
       <c r="A116" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="225">
       <c r="A117" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="C117" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="D117" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="43">
       <c r="A118" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="D118" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" ht="150">
       <c r="A119" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="240">
       <c r="A120" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>323</v>
-      </c>
       <c r="C120" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="180">
       <c r="A121" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="239">
       <c r="A122" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="E122" s="8"/>
     </row>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ED1A6-054C-0648-A465-79EFF025B934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EF900-7975-3349-A546-BDE612DC04EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2767,47 +2767,6 @@
 Why upto 2? The root can be middle n/2 if n is odd or middle two elements if n is even. Only then height can be minimum. Think of it as median of array.</t>
   </si>
   <si>
-    <t>Ceil:
-When l == r, arr[m] &lt; target, so we need to return m + 1
-l = m + 1 will execute, so we return l;
-Floor:
-When l == r, arr[m] &gt; target, so we need to return m - 1
-r = m - 1 will execute, so we return r;
-To avoid negative index when target &lt; arr[0], we use Math.max(0, r)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    public static int binarySearchCeil(int arr[], int x) { 
-        int l = 0, r = arr.length - 1; 
-        while (l &lt;= r) { 
-            int m = l + (r - l) / 2; 
-            if (arr[m] == x) {
-                return m; 
-            }
-            if (arr[m] &lt; x) {
-                l = m + 1; 
-            } else {
-                r = m - 1; 
-            }
-        } 
-        return l; 
-    } 
-    public static int binarySearchFloor(int arr[], int x) { 
-        int l = 0, r = arr.length - 1; 
-        while (l &lt;= r) { 
-            int m = l + (r - l) / 2; 
-            if (arr[m] == x) {
-                return m; 
-            }
-            if (arr[m] &lt; x) {
-                l = m + 1; 
-            } else {
-                r = m - 1; 
-            }
-        } 
-        return Math.max(0, r); 
-    } </t>
-  </si>
-  <si>
     <t>s1[0] = -prices[0];
 s0[0] = 0;
 s2[0] = INT_MIN;
@@ -3021,6 +2980,46 @@
   </si>
   <si>
     <t>binary_search, arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static int binarySearchCeil(int arr[], int x) { 
+        int l = 0, r = arr.length - 1; 
+        while (l &lt;= r) { 
+            int m = l + (r - l) / 2; 
+            if (arr[m] == x) {
+                return m; 
+            }
+            if (arr[m] &lt; x) {
+                l = m + 1; 
+            } else {
+                r = m - 1; 
+            }
+        } 
+        return Math.min(l, arr.length - 1); 
+    } 
+    public static int binarySearchFloor(int arr[], int x) { 
+        int l = 0, r = arr.length - 1; 
+        while (l &lt;= r) { 
+            int m = l + (r - l) / 2; 
+            if (arr[m] == x) {
+                return m; 
+            }
+            if (arr[m] &lt; x) {
+                l = m + 1; 
+            } else {
+                r = m - 1; 
+            }
+        } 
+        return Math.max(0, r); 
+    } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+When l = r = m, there are 2 possibilities:
+1. arr[m] &gt; target. 
+In this case, l (=m) is already pointing to the ceiling and r = m - 1 will execute and so r will give floor
+2. arr[m] &lt; target
+Here r is already pointing to the floor and l = m + 1 will execute and so, l will give ceil</t>
   </si>
 </sst>
 </file>
@@ -3452,8 +3451,8 @@
   </sheetPr>
   <dimension ref="A1:F1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3543,7 +3542,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
@@ -3556,7 +3555,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
@@ -3637,10 +3636,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="150">
@@ -3774,7 +3773,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
@@ -3803,10 +3802,10 @@
         <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="384">
@@ -4059,19 +4058,19 @@
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6">
@@ -4093,19 +4092,19 @@
     </row>
     <row r="42" spans="1:5" ht="409.6">
       <c r="A42" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="120">
@@ -4304,11 +4303,11 @@
         <v>146</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="409.6">
@@ -4469,19 +4468,19 @@
     </row>
     <row r="66" spans="1:5" ht="409.6">
       <c r="A66" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>147</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="165">
@@ -5347,7 +5346,7 @@
         <v>326</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>327</v>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EF900-7975-3349-A546-BDE612DC04EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F046C0-CAE5-E14E-90B4-110E4E2458FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="463">
   <si>
     <t>Problem</t>
   </si>
@@ -2979,9 +2979,6 @@
     <t>binary_search, two_pointers</t>
   </si>
   <si>
-    <t>binary_search, arrays</t>
-  </si>
-  <si>
     <t xml:space="preserve">    public static int binarySearchCeil(int arr[], int x) { 
         int l = 0, r = arr.length - 1; 
         while (l &lt;= r) { 
@@ -3014,12 +3011,228 @@
     } </t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>https://leetcode.com/problems/h-index-ii</t>
+  </si>
+  <si>
+    <t>H-Index 2</t>
+  </si>
+  <si>
+    <t>binary_search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int hIndex(int[] citations) {
+        int l = 0, r = citations.length - 1;
+        while (l &lt;= r) {
+            int m = l + (r - l) / 2;
+            int k = citations.length - m; //citations.length - 1 - m + 1;
+            if (k == citations[m]) {
+                return k;
+            } else if (k &lt; citations[m]) {
+                r = m - 1;
+            } else {
+                l = m + 1;
+            }
+        }
+        return citations.length - l;
+    }</t>
+  </si>
+  <si>
+    <t>k goes from 1 to length in reverse of input array
+if current k &lt; citations, search in the left array to maximise k
+In binary search, if number not found and loop breaks, we get something like 0, 1(r), 4(l), 5, 7
+For eg.suppose there is a imaginary 3.5 we are trying to find. Now, find the first i so that citations[i] &gt;= index[i], 
+citations[i]: 0, 1(r), (3.5), 4(l), 5, 7
+rev index[i]: 5, 4, (3.5), 3, 2, 1
+As we can't return 3.5, we return the next best result that is 4 which is n - l</t>
+  </si>
+  <si>
+    <t>When a number is not found, the result will be for target = 4:
+1, 3(r), 5(l), 7
+Hence, we can return r for floor and l for ceiling.
 When l = r = m, there are 2 possibilities:
 1. arr[m] &gt; target. 
 In this case, l (=m) is already pointing to the ceiling and r = m - 1 will execute and so r will give floor
 2. arr[m] &lt; target
 Here r is already pointing to the floor and l = m + 1 will execute and so, l will give ceil</t>
+  </si>
+  <si>
+    <t>Smallest letter greater than target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public char nextGreatestLetter(char[] letters, char target) {
+        int l = 0, h = letters.length - 1;
+        while (l &lt;= h) {
+            int m = l + (h - l) / 2;
+            if (letters[m] &lt;= target) {
+                l = m + 1;
+            } else {
+                h = m - 1;
+            }
+        }
+        return letters[l % letters.length];
+    }
+}</t>
+  </si>
+  <si>
+    <t>Incase of equality condition, start the search from next character.</t>
+  </si>
+  <si>
+    <t>Longest Duplicate Substring</t>
+  </si>
+  <si>
+    <t>binary_search, string</t>
+  </si>
+  <si>
+    <t>private static final long q = (1 &lt;&lt; 31) - 1;
+    private static final long R = 256;
+    public String longestDupSubstring(String S) {      
+        int left = 2;
+        int right = S.length() - 1;
+        int start = 0;
+        int maxLen = 0;
+        while (left &lt;= right) {
+            int len = left + (right - left) / 2;
+            boolean found = false;
+            Map&lt;Long, List&lt;Integer&gt;&gt; map = new HashMap&lt;&gt;();
+            long hash = hash(S, len);
+            map.put(hash, new ArrayList&lt;&gt;());
+            map.get(hash).add(0);
+            long RM = 1l;
+            for (int i = 1; i &lt; len; i++) RM = (R * RM) % q;
+            loop:
+            for (int i = 1; i + len &lt;= S.length(); i++) {
+                hash = (hash + q - RM * S.charAt(i - 1) % q) % q;
+                hash = (hash * R + S.charAt(i + len - 1)) % q;
+                if (!map.containsKey(hash)) {
+                    map.put(hash, new ArrayList&lt;&gt;());
+                } else {
+                    for (int j : map.get(hash)) {
+                        if (compare(S, i, j, len)) {
+                            found = true;
+                            start = i;
+                            maxLen = len;
+                            break loop;
+                        }
+                    }
+                }
+                map.get(hash).add(i);
+            }
+            if (found) left = len + 1;
+            else right = len - 1;
+        }
+        return S.substring(start, start + maxLen);
+    }
+    private long hash(String S, int len) { 
+        long h = 0;
+        for (int j = 0; j &lt; len; j++) h = (R * h + S.charAt(j)) % q;
+        return h;
+    }
+    private boolean compare(String S, int i, int j, int len) {
+        for (int count = 0; count &lt; len; count++) {
+            if (S.charAt(i++) != S.charAt(j++)) return false ; 
+        }
+        return true ; 
+    }</t>
+  </si>
+  <si>
+    <t>LCS Method:
+Use same technique of LCS by repeating the string but it should not start from the same position. So, the diagonal items in array are set to 0. However, it is not very efficient.
+Trie + Binary Search:
+l = 1, h = n 
+slide a window of length mid and check duplicate substrings by putting in Trie. If found,
+increase window size and repeat.
+Rolling Hash + Binary Search:
+Same technique but uses highly efficient rolling hash Method.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-duplicate-substring</t>
+  </si>
+  <si>
+    <t>Koko eating bananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int minEatingSpeed(int[] piles, int H) {
+        int max = Integer.MIN_VALUE;
+        for (int pile: piles) {
+            max = Math.max(max, pile);
+        }
+        int l = 1, h = max;
+        while (l &lt;= h) {
+            int k = l + (h - l)/2;
+            if (getHours(piles, k) &lt;= H) {
+                h = k - 1;
+            } else {
+                l = k + 1;
+            }
+        }
+        return l;
+    }
+    public int getHours(int[] piles, int k) {
+        int hours = 0;
+        for (int pile: piles) {
+            hours += pile/k;
+            if (pile % k != 0)
+                hours++;
+        }
+        return hours;
+    }</t>
+  </si>
+  <si>
+    <t>Low = 1 banana per hour, High = Max pile (therefore total hours to finish = total piles)
+if total hours for given k value is less than the min number of hours required, there is a scope to decrease speed (k) as we need to find min speed
+if it is greater than H, we have to increase our eating speed.
+The actual optimized value could lie between the given values, so we return the next highest value (ceiling)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Low = Max(input array) as if the capacity is less than this, shipping will be impossible
+High = Sum of array, this would ensure shipping in just 1 day
+if days required to ship less than or equal to D, we can try reducing the capacity.
+If days required &gt; D, we need to increase the capacity to meet the condition.
+Lastly, return the ceiling value as anything less than this would need more days to ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int shipWithinDays(int[] weights, int D) {
+        int l = Integer.MIN_VALUE;
+        int h = 0;
+        for (int w: weights) {
+            l = Math.max(l, w);
+            h += w;
+        }
+        while (l &lt;= h) {
+            int m = l + (h - l) / 2;
+            if (daysForShipping(weights, m) &lt;= D) {
+                h = m - 1;
+            } else {
+                l = m + 1;
+            }
+        }
+        return l;
+    }
+    public int daysForShipping(int[] weights, int cap) {
+        int days = 1;
+        int currentWeight = 0;
+        for (int w: weights) {
+            if (currentWeight + w &lt;= cap) {
+                currentWeight += w;
+            } else {
+                currentWeight = w;
+                days++;
+            }
+        }
+        return days;
+    }</t>
   </si>
 </sst>
 </file>
@@ -3449,10 +3662,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1042"/>
+  <dimension ref="A1:F1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3542,7 +3755,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
@@ -3555,7 +3768,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
@@ -3633,1760 +3846,1810 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="195">
+      <c r="A14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.6">
+      <c r="A15" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6">
+      <c r="A16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="225">
+      <c r="A17" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="B17" s="22" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="150">
-      <c r="A14" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.6">
+      <c r="A18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="150">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="342">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="255">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="398">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="90">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="342">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="255">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="398">
+      <c r="A23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="370">
-      <c r="A20" s="12" t="s">
+    <row r="25" spans="1:5" ht="370">
+      <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="150">
-      <c r="A21" s="12" t="s">
+    <row r="26" spans="1:5" ht="150">
+      <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="85">
-      <c r="A22" s="5" t="s">
+    <row r="27" spans="1:5" ht="85">
+      <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="409.6">
-      <c r="A23" s="5" t="s">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="409.6">
+      <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="384">
-      <c r="A24" s="5" t="s">
+    <row r="29" spans="1:5" ht="384">
+      <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29">
-      <c r="A25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="180">
-      <c r="A26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="105">
-      <c r="A27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="135">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="225">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29">
       <c r="A30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="225">
+      <c r="D30" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="180">
       <c r="A31" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="370">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="105">
       <c r="A32" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="180">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="135">
       <c r="A33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="E33" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="225">
       <c r="A34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="180">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>343</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="180">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="225">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="195">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="370">
       <c r="A37" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="90">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="180">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29">
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="180">
+      <c r="A40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="180">
+      <c r="A41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="195">
+      <c r="A42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="90">
+      <c r="A43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="8" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="120">
-      <c r="A39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="409.6">
-      <c r="A40" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="409.6">
-      <c r="A41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="409.6">
-      <c r="A42" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="120">
-      <c r="A43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="120">
       <c r="A44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.6">
+      <c r="A45" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.6">
+      <c r="A46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="409.6">
+      <c r="A47" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="120">
+      <c r="A48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="120">
+      <c r="A49" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="135">
-      <c r="A45" s="5" t="s">
+    <row r="50" spans="1:5" ht="135">
+      <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="408" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="210">
-      <c r="A47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="225">
-      <c r="A48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="29">
-      <c r="A49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="398">
-      <c r="A50" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="113">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="408" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="210">
+      <c r="A52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="225">
+      <c r="A53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="29">
+      <c r="A54" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="398">
+      <c r="A55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="113">
+      <c r="A56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" ht="409.6">
-      <c r="A52" s="5" t="s">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="409.6">
+      <c r="A57" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" ht="57">
-      <c r="A54" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:5" ht="270">
-      <c r="A55" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="409.6">
-      <c r="A56" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="195">
-      <c r="A57" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="57">
+      <c r="A59" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" ht="270">
+      <c r="A60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="409.6">
+      <c r="A61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="195">
+      <c r="A62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="29">
-      <c r="A58" s="5" t="s">
+    <row r="63" spans="1:5" ht="29">
+      <c r="A63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="165">
-      <c r="A59" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="85">
-      <c r="A60" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" ht="408" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="408" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="225">
-      <c r="A63" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="71">
+    <row r="64" spans="1:5" ht="165">
       <c r="A64" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="85">
+      <c r="A65" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="408" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="408" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="225">
+      <c r="A68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="71">
+      <c r="A69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" ht="370">
-      <c r="A65" s="5" t="s">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="370">
+      <c r="A70" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="8" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6">
-      <c r="A66" s="7" t="s">
+    <row r="71" spans="1:5" ht="409.6">
+      <c r="A71" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B71" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D71" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E71" s="21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="165">
-      <c r="A67" s="5" t="s">
+    <row r="72" spans="1:5" ht="165">
+      <c r="A72" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="8" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="342">
-      <c r="A68" s="5" t="s">
+    <row r="73" spans="1:5" ht="342">
+      <c r="A73" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="240">
-      <c r="A69" s="5" t="s">
+    <row r="74" spans="1:5" ht="240">
+      <c r="A74" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="29">
-      <c r="A70" s="5" t="s">
+    <row r="75" spans="1:5" ht="29">
+      <c r="A75" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" ht="255">
-      <c r="A71" s="5" t="s">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="255">
+      <c r="A76" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="409.6">
-      <c r="A72" s="7" t="s">
+    <row r="77" spans="1:5" ht="409.6">
+      <c r="A77" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B77" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="135">
-      <c r="A73" s="5" t="s">
+    <row r="78" spans="1:5" ht="135">
+      <c r="A78" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="5" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="8" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="197">
-      <c r="A74" s="5" t="s">
+    <row r="79" spans="1:5" ht="197">
+      <c r="A79" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" ht="29">
-      <c r="A75" s="12" t="s">
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" ht="29">
+      <c r="A80" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" ht="165">
-      <c r="A76" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="280" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="409" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="85">
-      <c r="A79" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" ht="285">
-      <c r="A80" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>191</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="165">
+      <c r="A81" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="280" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="409" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="85">
+      <c r="A84" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="285">
+      <c r="A85" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="225">
-      <c r="A81" s="5" t="s">
+    <row r="86" spans="1:5" ht="225">
+      <c r="A86" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" ht="29">
-      <c r="A82" s="5" t="s">
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="29">
+      <c r="A87" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B87" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" ht="57">
-      <c r="A83" s="5" t="s">
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="57">
+      <c r="A88" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B88" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D88" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" ht="127">
-      <c r="A84" s="5" t="s">
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" ht="127">
+      <c r="A89" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" ht="165">
-      <c r="A85" s="5" t="s">
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="165">
+      <c r="A90" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="409.6">
-      <c r="A86" s="5" t="s">
+    <row r="91" spans="1:5" ht="409.6">
+      <c r="A91" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="43">
-      <c r="A87" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="225">
-      <c r="A88" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="225">
-      <c r="A89" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="195">
-      <c r="A90" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="370">
-      <c r="A91" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="300">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="43">
       <c r="A92" s="5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="328">
+        <v>226</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="225">
       <c r="A93" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>244</v>
+        <v>228</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="E93" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="255">
-      <c r="A94" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="328">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="225">
+      <c r="A94" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="195">
       <c r="A95" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>235</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="370">
       <c r="A96" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" ht="57">
+        <v>235</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="300">
       <c r="A97" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" ht="165">
+        <v>235</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="328">
       <c r="A98" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="225">
-      <c r="A99" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="342">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="255">
+      <c r="A99" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="328">
       <c r="A100" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="240">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>265</v>
+        <v>249</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15">
+        <v>251</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" ht="57">
       <c r="A102" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>268</v>
+        <v>252</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="105">
+    <row r="103" spans="1:5" ht="165">
       <c r="A103" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>272</v>
+        <v>255</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="60">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="225">
       <c r="A104" s="5" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D104" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="E104" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="180">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="342">
       <c r="A105" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>278</v>
+        <v>261</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="165">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="240">
       <c r="A106" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>282</v>
+        <v>264</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="285">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>285</v>
+        <v>267</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="135">
+      <c r="D107" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" ht="105">
       <c r="A108" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>269</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="384">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60">
       <c r="A109" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="8" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="180">
       <c r="A110" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>377</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="135">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="165">
       <c r="A111" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="57">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="285">
       <c r="A112" s="5" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E112" s="8"/>
-    </row>
-    <row r="113" spans="1:5" ht="225">
+        <v>269</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="135">
       <c r="A113" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>269</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="150">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="384">
       <c r="A114" s="5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="409.6">
-      <c r="A115" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="285">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="180">
+      <c r="A115" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="135">
       <c r="A116" s="5" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="225">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="57">
       <c r="A117" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="43">
+        <v>302</v>
+      </c>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" ht="225">
       <c r="A118" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E118" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="150">
       <c r="A119" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>319</v>
+        <v>306</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="409.6">
+      <c r="A120" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="285">
+      <c r="A121" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="225">
+      <c r="A122" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43">
+      <c r="A123" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" spans="1:5" ht="150">
+      <c r="A124" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="240">
-      <c r="A120" s="5" t="s">
+    <row r="125" spans="1:5" ht="240">
+      <c r="A125" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="180">
-      <c r="A121" s="5" t="s">
+    <row r="126" spans="1:5" ht="180">
+      <c r="A126" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="239">
-      <c r="A122" s="5" t="s">
+    <row r="127" spans="1:5" ht="239">
+      <c r="A127" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123" spans="1:5" ht="14">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="21"/>
-    </row>
-    <row r="124" spans="1:5" ht="14">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="21"/>
-    </row>
-    <row r="125" spans="1:5" ht="14">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="21"/>
-    </row>
-    <row r="126" spans="1:5" ht="14">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="21"/>
-    </row>
-    <row r="127" spans="1:5" ht="14">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="21"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" ht="14">
       <c r="A128" s="7"/>
@@ -11793,119 +12056,159 @@
       <c r="D1042" s="7"/>
       <c r="E1042" s="21"/>
     </row>
+    <row r="1043" spans="1:5" ht="14">
+      <c r="A1043" s="7"/>
+      <c r="B1043" s="7"/>
+      <c r="C1043" s="7"/>
+      <c r="D1043" s="7"/>
+      <c r="E1043" s="21"/>
+    </row>
+    <row r="1044" spans="1:5" ht="14">
+      <c r="A1044" s="7"/>
+      <c r="B1044" s="7"/>
+      <c r="C1044" s="7"/>
+      <c r="D1044" s="7"/>
+      <c r="E1044" s="21"/>
+    </row>
+    <row r="1045" spans="1:5" ht="14">
+      <c r="A1045" s="7"/>
+      <c r="B1045" s="7"/>
+      <c r="C1045" s="7"/>
+      <c r="D1045" s="7"/>
+      <c r="E1045" s="21"/>
+    </row>
+    <row r="1046" spans="1:5" ht="14">
+      <c r="A1046" s="7"/>
+      <c r="B1046" s="7"/>
+      <c r="C1046" s="7"/>
+      <c r="D1046" s="7"/>
+      <c r="E1046" s="21"/>
+    </row>
+    <row r="1047" spans="1:5" ht="14">
+      <c r="A1047" s="7"/>
+      <c r="B1047" s="7"/>
+      <c r="C1047" s="7"/>
+      <c r="D1047" s="7"/>
+      <c r="E1047" s="21"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B45" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B52" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B76" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B95" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B96" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B99" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B100" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B101" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B102" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B104" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B112" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B113" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B114" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B116" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B117" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B118" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B119" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B120" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B121" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B122" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B28" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
-    <hyperlink ref="B25" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
-    <hyperlink ref="D83" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B80" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B77" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B78" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
-    <hyperlink ref="B72" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
-    <hyperlink ref="B115" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
-    <hyperlink ref="B94" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
-    <hyperlink ref="B62" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
-    <hyperlink ref="B40" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
-    <hyperlink ref="B66" r:id="rId109" xr:uid="{84E56487-A0E4-FE4C-906A-E3AF93FBE5B3}"/>
-    <hyperlink ref="D66" r:id="rId110" xr:uid="{D7BF6DAF-B2B6-584D-8ED5-36E1EEFD2F1D}"/>
-    <hyperlink ref="B42" r:id="rId111" xr:uid="{C296BBBB-3D2E-E542-8363-83D848F6819A}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B43" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B48" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B49" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B54" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B58" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B59" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B63" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B64" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B65" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B66" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B68" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B69" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B70" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B72" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B74" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B79" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B80" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B84" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B86" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B88" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B89" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B90" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B91" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B92" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B93" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B95" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B98" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B101" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B102" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B104" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B105" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B106" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B107" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B110" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B111" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B112" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B114" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B115" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B116" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B117" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B118" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B119" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B121" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B122" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B126" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B127" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B33" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
+    <hyperlink ref="B30" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
+    <hyperlink ref="D88" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B85" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B82" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B83" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B77" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B120" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="B99" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
+    <hyperlink ref="B67" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
+    <hyperlink ref="B45" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
+    <hyperlink ref="B71" r:id="rId109" xr:uid="{84E56487-A0E4-FE4C-906A-E3AF93FBE5B3}"/>
+    <hyperlink ref="D71" r:id="rId110" xr:uid="{D7BF6DAF-B2B6-584D-8ED5-36E1EEFD2F1D}"/>
+    <hyperlink ref="B47" r:id="rId111" xr:uid="{C296BBBB-3D2E-E542-8363-83D848F6819A}"/>
+    <hyperlink ref="B17" r:id="rId112" xr:uid="{2439D840-401B-D047-871E-BA8C01356F45}"/>
+    <hyperlink ref="B14" r:id="rId113" xr:uid="{BFEE11EC-AB8A-0F45-ADD1-3643F448841F}"/>
+    <hyperlink ref="B18" r:id="rId114" xr:uid="{0301B035-4615-784F-966F-242D8BF717AC}"/>
+    <hyperlink ref="B15" r:id="rId115" xr:uid="{DADAF7B9-1BB8-4C40-A7FD-15B66D9E0CAC}"/>
+    <hyperlink ref="B16" r:id="rId116" xr:uid="{64284DB2-2FE9-8F4F-9A6A-776D1E84539B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F046C0-CAE5-E14E-90B4-110E4E2458FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E843CBE-727A-494E-8D77-259A15420F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="490">
   <si>
     <t>Problem</t>
   </si>
@@ -154,9 +154,6 @@
     } </t>
   </si>
   <si>
-    <t>Binary Search Iterative</t>
-  </si>
-  <si>
     <t xml:space="preserve">    public static int binarySearchIterative(int arr[], int x) { 
         int l = 0, r = arr.length - 1; 
         while (l &lt;= r) { 
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>Breadth First Search</t>
-  </si>
-  <si>
-    <t>bfs, graph</t>
   </si>
   <si>
     <t xml:space="preserve">    public void BFSTraversal(int s) { 
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>Union Find</t>
-  </si>
-  <si>
-    <t>graph, union_find</t>
   </si>
   <si>
     <t xml:space="preserve">   // A utility function to find the subset of an element i 
@@ -2438,16 +2429,6 @@
   </si>
   <si>
     <t>heap, binary_search</t>
-  </si>
-  <si>
-    <t>1. If the entire left part is monotonically increasing, which means the pivot point is on the right part
-	If left &lt;= target &lt; mid ------&gt; drop the right half
-	Use &lt;= to make sure that target is in left part
-	Else ------&gt; drop the left half
-2. If the entire right part is monotonically increasing, which means the pivot point is on the left part
-	If mid &lt; target &lt;= right ------&gt; drop the left half
-	Use &lt;= to make sure target is in right part
-	Else ------&gt; drop the right half</t>
   </si>
   <si>
     <t xml:space="preserve">    while (left &lt;= right) {
@@ -2601,9 +2582,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
-  </si>
-  <si>
-    <t>Mark num[num[i]] as -1, if already negative again it is duplicate</t>
   </si>
   <si>
     <t>public int minReorder(int n, int[][] connections) {
@@ -3233,6 +3211,236 @@
         }
         return days;
     }</t>
+  </si>
+  <si>
+    <t>First check if the selected half is increasing then check if the target is present in this half.
+1. If the entire left part is monotonically increasing, which means the pivot point is on the right part
+	If left &lt;= target &lt; mid ------&gt; drop the right half
+	Use &lt;= to make sure that target is in left part
+	Else ------&gt; drop the left half
+2. If the entire right part is monotonically increasing, which means the pivot point is on the left part
+	If mid &lt; target &lt;= right ------&gt; drop the left half
+	Use &lt;= to make sure target is in right part
+	Else ------&gt; drop the right half</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int findPeakElement(int[] num) {
+        int low = 0;
+        int high = num.size()-1;
+        while(low &lt; high)
+        {
+            int mid1 = (low+high)/2;
+            int mid2 = mid1+1;
+            if(num[mid1] &lt; num[mid2])
+                low = mid2;
+            else
+                high = mid1;
+        }
+        return low;
+    }</t>
+  </si>
+  <si>
+    <t>Whichever is the increasing side, choose it.</t>
+  </si>
+  <si>
+    <t>Missing Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>https://strstr.io/Leetcode1060-Missing-Element-in-Sorted-Array/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int missingElement(int[] nums, int k) {
+        int left = 0;
+        int right = nums.length-1;
+        int count = missingCount(nums, right);
+        if(k &gt; count) {
+            return nums[right] + k - count;
+        }
+        while(left &lt; right) {                     
+            int mid = left + (right - left) /2 ;
+            count = missingCount(nums, mid);
+            if(count &gt;= k){
+                right = mid;                      
+            } else {
+                left = mid + 1;
+            }
+        }
+        return nums[left-1] + k - missingCount(nums, left-1);
+    }
+    public int missingCount(int[] nums, int idx){
+        return nums[idx] - nums[0] - idx;
+    }</t>
+  </si>
+  <si>
+    <t>Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/</t>
+  </si>
+  <si>
+    <t>Use template 2 of Leetcode Explore. Refer to diagram in the link, If K = 3, we will stop at number 9. if K = 4, we will stop at number 13. We are trying to stop at leftmost ceiling of a number. Now we can add k - missing to the left of this number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int peakIndexInMountainArray(int[] A) {
+        int l = 0, r = A.length - 1, m;
+        while (l &lt; r) {
+            m = (l + r) / 2;
+            if (A[m] &lt; A[m + 1])
+                l = m + 1;
+            else
+                r = m;
+        }
+        return l;
+    }</t>
+  </si>
+  <si>
+    <t>Use template 2 as we need to check neighboring elements.</t>
+  </si>
+  <si>
+    <t>Binary Search Iterative Template 1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/binary-search/125/template-i/938/</t>
+  </si>
+  <si>
+    <t>Most basic and elementary form of Binary Search
+Search Condition can be determined without comparing to the element's neighbors (or use specific elements around it)
+No post-processing required because at each step, you are checking to see if the element has been found. If you reach the end, then you know the element is not found</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/binary-search/126/template-ii/937/</t>
+  </si>
+  <si>
+    <t>Binary Search Iterative Template 2</t>
+  </si>
+  <si>
+    <t>int binarySearch(int[] nums, int target){
+  if(nums == null || nums.length == 0)
+    return -1;
+  int left = 0, right = nums.length - 1;
+  while (left &lt; right) {
+    int mid = left + (right - left) / 2;
+    if (nums[mid] == target) { 
+    	return mid; 
+    } else if (nums[mid] &lt; target) { 
+    	left = mid + 1; 
+    } else { 
+    	right = mid; 
+    }
+  }
+  return left;
+}</t>
+  </si>
+  <si>
+    <t>binary_search, template</t>
+  </si>
+  <si>
+    <t>bfs, graph, template</t>
+  </si>
+  <si>
+    <t>graph, union_find, template</t>
+  </si>
+  <si>
+    <t>dfs, graph, template</t>
+  </si>
+  <si>
+    <t>graph, topological_sort, template</t>
+  </si>
+  <si>
+    <t>Binary Search Iterative Template 3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/binary-search/135/template-iii/936/</t>
+  </si>
+  <si>
+    <t>int binarySearch(int[] nums, int target) {
+    if (nums == null || nums.length == 0)
+        return -1;
+    int left = 0, right = nums.length - 1;
+    while (left + 1 &lt; right){
+        int mid = left + (right - left) / 2;
+        if (nums[mid] == target) {
+            return mid;
+        } else if (nums[mid] &lt; target) {
+            left = mid;
+        } else {
+            right = mid;
+        }
+    }
+    // End Condition: left + 1 == right
+    if(nums[left] == target) return left;
+    if(nums[right] == target) return right;
+    return -1;
+}</t>
+  </si>
+  <si>
+    <t>Template #3 is another unique form of Binary Search. It is used to search for an element or condition which requires accessing the current index and its immediate left and right neighbor's index in the array.
+Key Attributes:
+Search Condition needs to access element's immediate left and right neighbors
+Use element's neighbors to determine if condition is met and decide whether to go left or right
+Gurantees Search Space is at least 3 in size at each step
+Post-processing required. Loop/Recursion ends when you have 2 elements left. Need to assess if the remaining elements meet the condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use this template when we have T, T, T, F,  F kind of pattern and we need to return first change.
+OR Search Condition needs to access element's immediate right neighbor
+Use element's right neighbor to determine if condition is met and decide whether to go left or right
+Gurantees Search Space is at least 2 in size at each step
+Post-processing required. Loop/Recursion ends when you have 1 element left. Need to assess if the remaining element meets the condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	public List&lt;Integer&gt; findClosestElements(List&lt;Integer&gt; arr, int k, int x) {
+		int n = arr.size();
+		if (x &lt;= arr.get(0)) {
+			return arr.subList(0, k);
+		} else if (arr.get(n - 1) &lt;= x) {
+			return arr.subList(n - k, n);
+		} else {
+			int index = Collections.binarySearch(arr, x);
+			if (index &lt; 0)
+				index = -index - 1;
+			int low = Math.max(0, index - k - 1), high = Math.min(arr.size() - 1, index + k - 1);
+			while (high - low &gt; k - 1) {
+				if (low &lt; 0 || (x - arr.get(low)) &lt;= (arr.get(high) - x))
+					high--;
+				else if (high &gt; arr.size() - 1 || (x - arr.get(low)) &gt; (arr.get(high) - x))
+					low++;
+				else
+					System.out.println("unhandled case: " + low + " " + high);
+			}
+			return arr.subList(low, high + 1);
+		}
+	}</t>
+  </si>
+  <si>
+    <t>Mark num[num[i]] as -1, if already negative again it is duplicate if modification is allowed. 
+Otherwise, use fast and slow pointer technique</t>
+  </si>
+  <si>
+    <t>int findDuplicate3(int nums) {
+	if (nums.size() &gt; 1) {
+		int slow = nums[0];
+		int fast = nums[nums[0]];
+		while (slow != fast) {
+			slow = nums[slow];
+			fast = nums[nums[fast]];
+		}
+		fast = 0; // now find the meeting point
+		while (fast != slow) {
+			fast = nums[fast];
+			slow = nums[slow];
+		}
+		return slow;
+	}
+	return -1;
+}</t>
   </si>
 </sst>
 </file>
@@ -3662,10 +3870,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1047"/>
+  <dimension ref="A1:F1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3731,7 +3939,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3755,7 +3963,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
@@ -3764,1927 +3972,1985 @@
     </row>
     <row r="7" spans="1:6" ht="240">
       <c r="A7" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="255">
+      <c r="A8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="300">
+      <c r="A9" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="285">
+      <c r="A10" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="285">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="225">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="150">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>478</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="150">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="225">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>479</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="255">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="150">
       <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>480</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="150">
       <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="255">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.6">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="195">
+      <c r="A16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="195">
-      <c r="A14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.6">
-      <c r="A15" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.6">
-      <c r="A16" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>459</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="225">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6">
       <c r="A18" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>454</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="150">
-      <c r="A19" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="225">
+      <c r="A19" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6">
+      <c r="A20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="150">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="225">
+      <c r="A22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="356">
+      <c r="A23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="165">
+      <c r="A24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="342">
+      <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29">
+      <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="255">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="342">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E27" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="398">
+      <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="255">
-      <c r="A22" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="398">
-      <c r="A23" s="5" t="s">
+      <c r="E28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="11" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="90">
+      <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B29" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="90">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="370">
-      <c r="A25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="150">
-      <c r="A26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="85">
-      <c r="A27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="409.6">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="384">
-      <c r="A29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="E29" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29">
-      <c r="A30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="180">
-      <c r="A31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="105">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="370">
+      <c r="A30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="150">
+      <c r="A31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="85">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="135">
+        <v>38</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="409.6">
       <c r="A33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>338</v>
+        <v>62</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="225">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="384">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="180">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="270">
       <c r="A35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="E35" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="225">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="180">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="E36" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="370">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="105">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="180">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="135">
       <c r="A38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="E38" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="225">
       <c r="A39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="180">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>343</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="225">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="195">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="370">
       <c r="A42" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="90">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="180">
       <c r="A43" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="120">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="29">
       <c r="A44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="409.6">
-      <c r="A45" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="409.6">
+        <v>89</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="180">
+      <c r="A45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="180">
       <c r="A46" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="409.6">
-      <c r="A47" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="120">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="195">
+      <c r="A47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="90">
       <c r="A48" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="120">
       <c r="A49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.6">
+      <c r="A50" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.6">
+      <c r="A51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.6">
+      <c r="A52" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="120">
+      <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="120">
+      <c r="A54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="135">
+      <c r="A55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C55" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="135">
-      <c r="A50" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="408" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="210">
-      <c r="A52" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="225">
-      <c r="A53" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="29">
-      <c r="A54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="398">
-      <c r="A55" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="408" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="210">
+      <c r="A57" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="225">
+      <c r="A58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29">
+      <c r="A59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="398">
+      <c r="A60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="113">
+      <c r="A61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="113">
-      <c r="A56" s="5" t="s">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="409.6">
+      <c r="A62" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="409.6">
-      <c r="A57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="57">
-      <c r="A59" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" ht="270">
-      <c r="A60" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="16" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="409.6">
-      <c r="A61" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="195">
-      <c r="A62" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" ht="57">
+      <c r="A64" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:5" ht="270">
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="409.6">
+      <c r="A66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="195">
+      <c r="A67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="29">
+      <c r="A68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="29">
-      <c r="A63" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="165">
+      <c r="A69" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="B69" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="C69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="85">
+      <c r="A70" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" ht="165">
-      <c r="A64" s="5" t="s">
+      <c r="B70" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C70" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="D70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="408" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="408" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="225">
+      <c r="A73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="71">
+      <c r="A74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="370">
+      <c r="A75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="409.6">
+      <c r="A76" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="165">
+      <c r="A77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="342">
+      <c r="A78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="85">
-      <c r="A65" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" ht="408" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E78" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="240">
+      <c r="A79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="408" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="225">
-      <c r="A68" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" ht="71">
-      <c r="A69" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" ht="370">
-      <c r="A70" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="29">
+      <c r="A80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="409.6">
-      <c r="A71" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="165">
-      <c r="A72" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="342">
-      <c r="A73" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="255">
+      <c r="A81" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="240">
-      <c r="A74" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="5" t="s">
+    <row r="82" spans="1:5" ht="409.6">
+      <c r="A82" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="135">
+      <c r="A83" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="197">
+      <c r="A84" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5" ht="29">
+      <c r="A85" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="165">
+      <c r="A86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="280" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="409" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="85">
+      <c r="A89" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="285">
+      <c r="A90" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="225">
+      <c r="A91" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="29">
+      <c r="A92" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="57">
+      <c r="A93" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="127">
+      <c r="A94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" ht="165">
+      <c r="A95" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="29">
-      <c r="A75" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" ht="255">
-      <c r="A76" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="409.6">
-      <c r="A77" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="135">
-      <c r="A78" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="197">
-      <c r="A79" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" ht="29">
-      <c r="A80" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="165">
-      <c r="A81" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="280" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="409" customHeight="1">
-      <c r="A83" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="85">
-      <c r="A84" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" ht="285">
-      <c r="A85" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="225">
-      <c r="A86" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" ht="29">
-      <c r="A87" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="57">
-      <c r="A88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:5" ht="127">
-      <c r="A89" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="5" t="s">
+    </row>
+    <row r="96" spans="1:5" ht="409.6">
+      <c r="A96" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" ht="165">
-      <c r="A90" s="5" t="s">
+      <c r="B96" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="409.6">
-      <c r="A91" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="43">
-      <c r="A92" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" ht="225">
-      <c r="A93" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="225">
-      <c r="A94" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="195">
-      <c r="A95" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="370">
-      <c r="A96" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="300">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43">
       <c r="A97" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="328">
+        <v>223</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" ht="225">
       <c r="A98" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>244</v>
+        <v>225</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D98" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="E98" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="255">
-      <c r="A99" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="328">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="225">
+      <c r="A99" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="195">
       <c r="A100" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="370">
       <c r="A101" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" spans="1:5" ht="57">
+        <v>232</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="300">
       <c r="A102" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" ht="165">
+        <v>232</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="328">
       <c r="A103" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="225">
-      <c r="A104" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="342">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="255">
+      <c r="A104" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="328">
       <c r="A105" s="5" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="240">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15">
       <c r="A106" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>265</v>
+        <v>246</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15">
+        <v>248</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" ht="57">
       <c r="A107" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>268</v>
+        <v>249</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="1:5" ht="105">
+    <row r="108" spans="1:5" ht="165">
       <c r="A108" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>272</v>
+        <v>252</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="60">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="225">
       <c r="A109" s="5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D109" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="E109" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="180">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="342">
       <c r="A110" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>278</v>
+        <v>258</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="165">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="240">
       <c r="A111" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>282</v>
+        <v>261</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="285">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>285</v>
+        <v>264</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" ht="105">
+      <c r="A113" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="135">
-      <c r="A113" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>288</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="384">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60">
       <c r="A114" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>291</v>
+        <v>271</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="180">
       <c r="A115" s="5" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>377</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="135">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="165">
       <c r="A116" s="5" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="57">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="285">
       <c r="A117" s="5" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" ht="225">
+        <v>266</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="135">
       <c r="A118" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>304</v>
+        <v>284</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="150">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="384">
       <c r="A119" s="5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="409.6">
-      <c r="A120" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="285">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="180">
+      <c r="A120" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="135">
       <c r="A121" s="5" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="225">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="57">
       <c r="A122" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>314</v>
+        <v>296</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="43">
+        <v>299</v>
+      </c>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" spans="1:5" ht="225">
       <c r="A123" s="5" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="8" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="150">
       <c r="A124" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>319</v>
+        <v>303</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="409.6">
+      <c r="A125" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="285">
+      <c r="A126" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="225">
+      <c r="A127" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="43">
+      <c r="A128" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" spans="1:5" ht="150">
+      <c r="A129" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="240">
+      <c r="A130" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="180">
+      <c r="A131" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="240">
-      <c r="A125" s="5" t="s">
+      <c r="B131" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C131" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="342">
+      <c r="A132" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="180">
-      <c r="A126" s="5" t="s">
+      <c r="B132" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C132" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="239">
-      <c r="A127" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" spans="1:5" ht="14">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="21"/>
-    </row>
-    <row r="129" spans="1:5" ht="14">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="21"/>
-    </row>
-    <row r="130" spans="1:5" ht="14">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="21"/>
-    </row>
-    <row r="131" spans="1:5" ht="14">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="21"/>
-    </row>
-    <row r="132" spans="1:5" ht="14">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="21"/>
+      <c r="E132" s="8" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="14">
       <c r="A133" s="7"/>
@@ -12091,124 +12357,165 @@
       <c r="D1047" s="7"/>
       <c r="E1047" s="21"/>
     </row>
+    <row r="1048" spans="1:5" ht="14">
+      <c r="A1048" s="7"/>
+      <c r="B1048" s="7"/>
+      <c r="C1048" s="7"/>
+      <c r="D1048" s="7"/>
+      <c r="E1048" s="21"/>
+    </row>
+    <row r="1049" spans="1:5" ht="14">
+      <c r="A1049" s="7"/>
+      <c r="B1049" s="7"/>
+      <c r="C1049" s="7"/>
+      <c r="D1049" s="7"/>
+      <c r="E1049" s="21"/>
+    </row>
+    <row r="1050" spans="1:5" ht="14">
+      <c r="A1050" s="7"/>
+      <c r="B1050" s="7"/>
+      <c r="C1050" s="7"/>
+      <c r="D1050" s="7"/>
+      <c r="E1050" s="21"/>
+    </row>
+    <row r="1051" spans="1:5" ht="14">
+      <c r="A1051" s="7"/>
+      <c r="B1051" s="7"/>
+      <c r="C1051" s="7"/>
+      <c r="D1051" s="7"/>
+      <c r="E1051" s="21"/>
+    </row>
+    <row r="1052" spans="1:5" ht="14">
+      <c r="A1052" s="7"/>
+      <c r="B1052" s="7"/>
+      <c r="C1052" s="7"/>
+      <c r="D1052" s="7"/>
+      <c r="E1052" s="21"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B43" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B48" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B49" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B52" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B54" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B58" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B59" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B63" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B64" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B65" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B66" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B68" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B69" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B70" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B72" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B74" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B79" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B80" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B84" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B86" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B88" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B89" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B90" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B91" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B92" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B93" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B95" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B98" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B101" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B102" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B104" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B105" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B106" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B107" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B110" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B111" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B112" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B114" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B115" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B116" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B117" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B118" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B119" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B121" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B122" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B126" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B127" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B33" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
-    <hyperlink ref="B30" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
-    <hyperlink ref="D88" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
-    <hyperlink ref="B85" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
-    <hyperlink ref="B82" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
-    <hyperlink ref="B83" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
-    <hyperlink ref="B77" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
-    <hyperlink ref="B120" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
-    <hyperlink ref="B99" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
-    <hyperlink ref="B67" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
-    <hyperlink ref="B45" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
-    <hyperlink ref="B71" r:id="rId109" xr:uid="{84E56487-A0E4-FE4C-906A-E3AF93FBE5B3}"/>
-    <hyperlink ref="D71" r:id="rId110" xr:uid="{D7BF6DAF-B2B6-584D-8ED5-36E1EEFD2F1D}"/>
-    <hyperlink ref="B47" r:id="rId111" xr:uid="{C296BBBB-3D2E-E542-8363-83D848F6819A}"/>
-    <hyperlink ref="B17" r:id="rId112" xr:uid="{2439D840-401B-D047-871E-BA8C01356F45}"/>
-    <hyperlink ref="B14" r:id="rId113" xr:uid="{BFEE11EC-AB8A-0F45-ADD1-3643F448841F}"/>
-    <hyperlink ref="B18" r:id="rId114" xr:uid="{0301B035-4615-784F-966F-242D8BF717AC}"/>
-    <hyperlink ref="B15" r:id="rId115" xr:uid="{DADAF7B9-1BB8-4C40-A7FD-15B66D9E0CAC}"/>
-    <hyperlink ref="B16" r:id="rId116" xr:uid="{64284DB2-2FE9-8F4F-9A6A-776D1E84539B}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B53" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B54" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B55" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B56" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B57" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B58" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B59" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B61" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B65" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B68" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B69" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B73" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B74" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B75" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B77" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B78" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B79" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B80" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B81" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B84" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B86" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B89" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B91" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B92" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B93" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B96" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B97" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B98" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B99" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B100" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B101" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B102" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B103" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B105" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B106" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B107" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B108" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B109" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B110" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B111" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B112" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B116" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B117" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B118" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B119" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B120" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B121" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B122" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B123" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B124" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B126" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B127" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B128" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B129" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B130" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B131" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B132" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B38" r:id="rId98" xr:uid="{3E36E18E-D7E1-0E43-BA0F-87728CDAE7F5}"/>
+    <hyperlink ref="B35" r:id="rId99" xr:uid="{051F61AE-5CD5-724E-BEE6-AF148A6088D1}"/>
+    <hyperlink ref="D93" r:id="rId100" xr:uid="{64084E7D-3DBE-994A-B04B-5B4E1461966B}"/>
+    <hyperlink ref="B90" r:id="rId101" xr:uid="{7E4E6CC0-3E4E-614A-B243-1348E92BA80D}"/>
+    <hyperlink ref="B87" r:id="rId102" xr:uid="{2EA8B205-AD96-3046-BAAD-6B74E2609355}"/>
+    <hyperlink ref="B88" r:id="rId103" xr:uid="{14818CE1-225F-2F41-BDA9-444BD7782FB4}"/>
+    <hyperlink ref="B82" r:id="rId104" xr:uid="{B99B3A7E-4933-9446-932C-856E8A311F76}"/>
+    <hyperlink ref="B125" r:id="rId105" xr:uid="{2749782D-E397-EC47-B5D1-C1837F846422}"/>
+    <hyperlink ref="B104" r:id="rId106" xr:uid="{77760DE6-8C2A-0B40-87E8-4F46F93743E6}"/>
+    <hyperlink ref="B72" r:id="rId107" xr:uid="{9995AC60-19AC-8047-9A04-5529F089BA57}"/>
+    <hyperlink ref="B50" r:id="rId108" xr:uid="{9B52E142-10C5-5E40-BDB6-2340EA1B0E13}"/>
+    <hyperlink ref="B76" r:id="rId109" xr:uid="{84E56487-A0E4-FE4C-906A-E3AF93FBE5B3}"/>
+    <hyperlink ref="D76" r:id="rId110" xr:uid="{D7BF6DAF-B2B6-584D-8ED5-36E1EEFD2F1D}"/>
+    <hyperlink ref="B52" r:id="rId111" xr:uid="{C296BBBB-3D2E-E542-8363-83D848F6819A}"/>
+    <hyperlink ref="B19" r:id="rId112" xr:uid="{2439D840-401B-D047-871E-BA8C01356F45}"/>
+    <hyperlink ref="B16" r:id="rId113" xr:uid="{BFEE11EC-AB8A-0F45-ADD1-3643F448841F}"/>
+    <hyperlink ref="B20" r:id="rId114" xr:uid="{0301B035-4615-784F-966F-242D8BF717AC}"/>
+    <hyperlink ref="B17" r:id="rId115" xr:uid="{DADAF7B9-1BB8-4C40-A7FD-15B66D9E0CAC}"/>
+    <hyperlink ref="B18" r:id="rId116" xr:uid="{64284DB2-2FE9-8F4F-9A6A-776D1E84539B}"/>
+    <hyperlink ref="B22" r:id="rId117" xr:uid="{F4779D89-AA89-F341-B8B3-0113E7164BC9}"/>
+    <hyperlink ref="B23" r:id="rId118" xr:uid="{BAC67434-368E-CF41-B6C3-35C95F7F270F}"/>
+    <hyperlink ref="B24" r:id="rId119" xr:uid="{F5F4E190-F45D-674D-9336-5A4F2DB089A5}"/>
+    <hyperlink ref="B7" r:id="rId120" xr:uid="{299F9BE9-C3C8-AB45-B127-0DF47E3BC085}"/>
+    <hyperlink ref="B8" r:id="rId121" xr:uid="{DC666596-AF4E-5048-BC50-8EAEE3D5005C}"/>
+    <hyperlink ref="B9" r:id="rId122" xr:uid="{3A618F35-F064-DA4D-A854-B797DB92364D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E843CBE-727A-494E-8D77-259A15420F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE64681-E5A9-EA4A-98AC-5563810C1C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1884,21 +1884,6 @@
             dp[i] = dp[i-1] + dp[i-2];
         }
 // Can optimize further by using just 3 variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        for (int i = 1; i &lt;= amount; i++) {
-            for (int coin: coins) {
-                if (i - coin &gt;= 0) {
-                    dp[i] = Math.min(dp[i], dp[i - coin] + 1);
-                }
-            }
-        }</t>
-  </si>
-  <si>
-    <t>dp[S] = min coins needed for amount S
-Recurrence:
-dp(S) = min {dp(S−ci)}+1, where i=0...n−1</t>
   </si>
   <si>
     <t xml:space="preserve">return lengthofLIS(nums, Integer.MIN_VALUE, 0);    
@@ -3441,6 +3426,38 @@
 	}
 	return -1;
 }</t>
+  </si>
+  <si>
+    <t>For recursive, we return the smallest number as min(1+coinChange(amount-coin1_value), 1+coinChange(amount-coin2_value, ......).
+dp[S] = min coins needed for amount S
+Recurrence:
+dp(S) = min {dp(S−ci)}+1, where i=0...n−1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int coinChange(int[] coins, int amount) {
+        if(amount==0)
+            return 0;
+        int n = Max_InT;
+        for(int coin : coins) {
+            int curr = 0;
+            if (amount &gt;= coin) {
+                int next = coinChange(coins, amount-coin);
+                if(next &gt;= 0)
+                    curr = 1+next;
+            }
+            if(curr &gt; 0)
+                n = Math.min(n,curr);
+        }
+        int finalCount = (n==Max_InT) ? -1 : n;
+        return finalCount;
+    }
+        for (int i = 1; i &lt;= amount; i++) {
+            for (int coin: coins) {
+                if (i - coin &gt;= 0) {
+                    dp[i] = Math.min(dp[i], dp[i - coin] + 1);
+                }
+            }
+        }</t>
   </si>
 </sst>
 </file>
@@ -3872,8 +3889,8 @@
   </sheetPr>
   <dimension ref="A1:F1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3939,7 +3956,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3963,7 +3980,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
@@ -3972,16 +3989,16 @@
     </row>
     <row r="7" spans="1:6" ht="240">
       <c r="A7" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>20</v>
@@ -3989,36 +4006,36 @@
     </row>
     <row r="8" spans="1:6" ht="255">
       <c r="A8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>474</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="300">
       <c r="A9" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>482</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="285">
@@ -4027,7 +4044,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
@@ -4040,7 +4057,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
@@ -4053,7 +4070,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
@@ -4066,7 +4083,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
@@ -4092,98 +4109,98 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="195">
       <c r="A16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>450</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6">
       <c r="A18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>455</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="225">
       <c r="A19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>436</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.6">
       <c r="A20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>445</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
@@ -4205,53 +4222,53 @@
     </row>
     <row r="22" spans="1:5" ht="225">
       <c r="A22" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>459</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="356">
       <c r="A23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="165">
       <c r="A24" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="342">
@@ -4262,13 +4279,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29">
@@ -4368,7 +4385,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="85">
@@ -4397,10 +4414,10 @@
         <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="384">
@@ -4429,10 +4446,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
@@ -4636,7 +4653,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="120">
+    <row r="49" spans="1:5" ht="356">
       <c r="A49" s="5" t="s">
         <v>105</v>
       </c>
@@ -4647,27 +4664,27 @@
         <v>104</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>344</v>
+        <v>488</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>343</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.6">
@@ -4684,24 +4701,24 @@
         <v>110</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="120">
@@ -4715,10 +4732,10 @@
         <v>109</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="120">
@@ -4732,10 +4749,10 @@
         <v>109</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="135">
@@ -4764,10 +4781,10 @@
         <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="210">
@@ -4781,10 +4798,10 @@
         <v>104</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="225">
@@ -4799,7 +4816,7 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29">
@@ -4814,7 +4831,7 @@
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="398">
@@ -4859,7 +4876,7 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15">
@@ -4900,11 +4917,11 @@
         <v>143</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="409.6">
@@ -4963,10 +4980,10 @@
         <v>153</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="85">
@@ -4995,27 +5012,27 @@
         <v>163</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="408" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="225">
@@ -5065,19 +5082,19 @@
     </row>
     <row r="76" spans="1:5" ht="409.6">
       <c r="A76" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="165">
@@ -5106,10 +5123,10 @@
         <v>179</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="240">
@@ -5123,10 +5140,10 @@
         <v>175</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29">
@@ -5155,27 +5172,27 @@
         <v>175</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="409.6">
       <c r="A82" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="D82" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="E82" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="135">
@@ -5238,36 +5255,36 @@
     </row>
     <row r="87" spans="1:5" ht="280" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="409" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>393</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="85">
@@ -5287,19 +5304,19 @@
     </row>
     <row r="90" spans="1:5" ht="285">
       <c r="A90" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="225">
@@ -5373,10 +5390,10 @@
         <v>38</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="409.6">
@@ -5420,10 +5437,10 @@
         <v>38</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="225">
@@ -5437,10 +5454,10 @@
         <v>229</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="195">
@@ -5505,17 +5522,17 @@
     </row>
     <row r="104" spans="1:5" ht="255">
       <c r="A104" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="328">
@@ -5589,10 +5606,10 @@
         <v>257</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="342">
@@ -5756,10 +5773,10 @@
         <v>266</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="135">
@@ -5824,19 +5841,19 @@
     </row>
     <row r="125" spans="1:5" ht="409.6">
       <c r="A125" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="285">
@@ -5865,10 +5882,10 @@
         <v>312</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="43">
@@ -5882,7 +5899,7 @@
         <v>314</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E128" s="8"/>
     </row>
@@ -5912,10 +5929,10 @@
         <v>314</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="180">
@@ -5929,10 +5946,10 @@
         <v>314</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="342">
@@ -5943,13 +5960,13 @@
         <v>323</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14">

--- a/Leetcode_Approach.xlsx
+++ b/Leetcode_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunwsingh/Projects/coding-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE64681-E5A9-EA4A-98AC-5563810C1C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2466C25D-7426-CF45-A1CD-6AADBCB80BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,16 +1924,6 @@
                 tailTable[CeilIndex(tailTable, -1, len - 1, A[i])] = A[i]; 
         } 
         return len; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    
-        if (i == 0 || j == 0)  
-            L[i][j] = 0;  
-        else if (X[i - 1] == Y[j - 1])  
-            L[i][j] = L[i - 1][j - 1] + 1;  
-        else
-            L[i][j] = max(L[i - 1][j], L[i][j - 1]);  
-        }  </t>
   </si>
   <si>
     <t>L[I][j] = LCS for X[0..I-1] and Y[0..j-1]</t>
@@ -2091,15 +2081,6 @@
     <t>Use Topological sort with dfs.
 1. Build adjacency list
 2. Do Topological sort for all characters. If already visited, return blank as there is a cycle N = 26;</t>
-  </si>
-  <si>
-    <t>DP:
-Sort by start times
-dp[I] represents total non overlapping intervals unto I
-dp[i] = max(dp[j]) + 1 0 &lt;= j &lt; I
-Greedy:
-{all intervals} - {max compatible intervals} = minimum deleted intervals
-Sort by end  times, to choose the smaller interval as we will be picking an interval ending earlier.</t>
   </si>
   <si>
     <t>// dp
@@ -3434,30 +3415,89 @@
 dp(S) = min {dp(S−ci)}+1, where i=0...n−1</t>
   </si>
   <si>
-    <t xml:space="preserve">    public int coinChange(int[] coins, int amount) {
-        if(amount==0)
-            return 0;
-        int n = Max_InT;
-        for(int coin : coins) {
-            int curr = 0;
-            if (amount &gt;= coin) {
-                int next = coinChange(coins, amount-coin);
-                if(next &gt;= 0)
-                    curr = 1+next;
-            }
-            if(curr &gt; 0)
-                n = Math.min(n,curr);
+    <t>public int coinChange(int[] coins, int amount) {
+    if(amount==0)
+        return 0;
+    int n = Max_InT;
+    for(int coin : coins) {
+        int curr = 0;
+        if (amount &gt;= coin) {
+            int next = coinChange(coins, amount-coin);
+            if(next &gt;= 0)
+                curr = 1+next;
         }
-        int finalCount = (n==Max_InT) ? -1 : n;
-        return finalCount;
+        if(curr &gt; 0)
+            n = Math.min(n,curr);
     }
-        for (int i = 1; i &lt;= amount; i++) {
-            for (int coin: coins) {
-                if (i - coin &gt;= 0) {
-                    dp[i] = Math.min(dp[i], dp[i - coin] + 1);
-                }
-            }
-        }</t>
+    int finalCount = (n==Max_InT) ? -1 : n;
+    return finalCount;
+}
+init dp array with int_max and dp[0] = 0
+for (int i = 1; i &lt;= amount; i++) {
+    for (int coin: coins) {
+        if (i - coin &gt;= 0) {
+            dp[i] = Math.min(dp[i], dp[i - coin] + 1);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>// time complexity - O(2^(m+n))
+// space complexity - O(m+n)
+public static int LCSM1(char[] X, char[] Y, int i, int j) {
+	if (i &lt;= 0 || j &lt;= 0)
+		return 0;
+	if (X[i - 1] == Y[j - 1])
+		return 1 + LCSM1(X, Y, i - 1, j - 1);
+	else
+		return Math.max(LCSM1(X, Y, i, j - 1), LCSM1(X, Y, i - 1, j));
+}
+// Recursive solution with memoization
+// time complexity - O(m*n)
+// space complexity - O(m*n)
+public static int LCSM2(char[] X, char[] Y, int i, int j, Integer[][] dp) {
+	if (i &lt;= 0 || j &lt;= 0)
+		return 0;
+	if (dp[i][j] != null)
+		return dp[i][j];
+	if (X[i - 1] == Y[j - 1])
+		return 1 + LCSM2(X, Y, i - 1, j - 1, dp);
+	else
+		return dp[i][j] = Math.max(LCSM2(X, Y, i, j - 1, dp), LCSM2(X, Y, i - 1, j, dp));
+}
+// Method3()- DP solution(Bottom up approach)
+// time complexity - O(m*n)
+// space complexity - O(m*n)
+public static int LCSM3(char[] X, char[] Y, int m, int n) {
+	int memo[][] = new int[m + 1][n + 1];
+	for (int i = 0; i &lt;= m; i++) {
+		for (int j = 0; j &lt;= n; j++) {
+			if (i == 0 || j == 0)
+				memo[i][j] = 0;
+			else if (X[i - 1] == Y[j - 1])
+				memo[i][j] = memo[i - 1][j - 1] + 1;
+			else
+				memo[i][j] = Math.max(memo[i - 1][j], memo[i][j - 1]);
+		}
+	}
+	return memo[m][n];
+}</t>
+  </si>
+  <si>
+    <t>we are trying to find max number of non overlapping intervals
+1. What if we sort by start date and remove subsequent intervals that overlapped with earliest interval
+Fails [1,8], [2,3], [4,5] as we will remove the smaller ones. So, we return 1 but the answer should have been 2
+2. What if we select the shortest interval:
+fails [1,5], [4,7], [6,8] as we will remove the bigger ones.
+This is why we sort by finishing time, so that we can pick max non overlapping intervals
+if we choose the interval that ends earlier, then there is more space for other intervals
+DP:
+Sort by start times
+dp[I] represents total non overlapping intervals unto I
+dp[i] = max(dp[j]) + 1 0 &lt;= j &lt; I
+Greedy:
+{all intervals} - {max compatible intervals} = minimum deleted intervals
+Sort by end  times, to choose the smaller interval as we will be picking an interval ending earlier.</t>
   </si>
 </sst>
 </file>
@@ -3889,8 +3929,8 @@
   </sheetPr>
   <dimension ref="A1:F1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -3956,7 +3996,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -3980,7 +4020,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
@@ -3989,16 +4029,16 @@
     </row>
     <row r="7" spans="1:6" ht="240">
       <c r="A7" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>20</v>
@@ -4006,36 +4046,36 @@
     </row>
     <row r="8" spans="1:6" ht="255">
       <c r="A8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>472</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="300">
       <c r="A9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>480</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="285">
@@ -4044,7 +4084,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
@@ -4057,7 +4097,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
@@ -4070,7 +4110,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
@@ -4083,7 +4123,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
@@ -4109,98 +4149,98 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="195">
       <c r="A16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>448</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.6">
       <c r="A18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>453</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="225">
       <c r="A19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.6">
       <c r="A20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>443</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="150">
@@ -4222,53 +4262,53 @@
     </row>
     <row r="22" spans="1:5" ht="225">
       <c r="A22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="356">
       <c r="A23" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>461</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="165">
       <c r="A24" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="342">
@@ -4279,13 +4319,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29">
@@ -4385,7 +4425,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="85">
@@ -4414,10 +4454,10 @@
         <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="384">
@@ -4446,10 +4486,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="180">
@@ -4653,7 +4693,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="356">
+    <row r="49" spans="1:5" ht="384">
       <c r="A49" s="5" t="s">
         <v>105</v>
       </c>
@@ -4664,27 +4704,27 @@
         <v>104</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6">
       <c r="A50" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.6">
@@ -4706,22 +4746,22 @@
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="120">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="409.6">
       <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
@@ -4732,10 +4772,10 @@
         <v>109</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>344</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="120">
@@ -4749,10 +4789,10 @@
         <v>109</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="135">
@@ -4781,10 +4821,10 @@
         <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="210">
@@ -4798,10 +4838,10 @@
         <v>104</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="225">
@@ -4816,7 +4856,7 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29">
@@ -4831,7 +4871,7 @@
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="398">
@@ -4876,7 +4916,7 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15">
@@ -4917,11 +4957,11 @@
         <v>143</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="409.6">
@@ -4980,10 +5020,10 @@
         <v>153</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="85">
@@ -5012,27 +5052,27 @@
         <v>163</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="408" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="225">
@@ -5082,19 +5122,19 @@
     </row>
     <row r="76" spans="1:5" ht="409.6">
       <c r="A76" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="165">
@@ -5112,7 +5152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="342">
+    <row r="78" spans="1:5" ht="409.6">
       <c r="A78" s="5" t="s">
         <v>177</v>
       </c>
@@ -5123,10 +5163,10 @@
         <v>179</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="240">
@@ -5140,10 +5180,10 @@
         <v>175</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29">
@@ -5172,27 +5212,27 @@
         <v>175</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="409.6">
       <c r="A82" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="D82" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="E82" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="135">
@@ -5255,36 +5295,36 @@
     </row>
     <row r="87" spans="1:5" ht="280" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="409" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="85">
@@ -5304,19 +5344,19 @@
     </row>
     <row r="90" spans="1:5" ht="285">
       <c r="A90" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="225">
@@ -5390,10 +5430,10 @@
         <v>38</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="409.6">
@@ -5437,10 +5477,10 @@
         <v>38</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="225">
@@ -5454,10 +5494,10 @@
         <v>229</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="195">
@@ -5522,17 +5562,17 @@
     </row>
     <row r="104" spans="1:5" ht="255">
       <c r="A104" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="328">
@@ -5606,10 +5646,10 @@
         <v>257</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="342">
@@ -5773,10 +5813,10 @@
         <v>266</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="135">
@@ -5841,19 +5881,19 @@
     </row>
     <row r="125" spans="1:5" ht="409.6">
       <c r="A125" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="285">
@@ -5882,10 +5922,10 @@
         <v>312</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="43">
@@ -5899,7 +5939,7 @@
         <v>314</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E128" s="8"/>
     </row>
@@ -5929,10 +5969,10 @@
         <v>314</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="180">
@@ -5946,10 +5986,10 @@
         <v>314</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="342">
@@ -5960,13 +6000,13 @@
         <v>323</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14">
